--- a/data/minfin/23_questions.xlsx
+++ b/data/minfin/23_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -552,9 +552,6 @@
     <t>Динамика поступления налогов на совокупный доход в консолидированный бюджет Российской Федерации в 2015-2016 гг</t>
   </si>
   <si>
-    <t xml:space="preserve">Поступления утилизационного сбора в федеральный бюджет Российской Федерации в две тысячи шестнадцатом году составили восемьдесят девять миллиардов восемьсот миллионов рублей, что на сорок четыре процента, чем в две тысячи пятнадцатом году </t>
-  </si>
-  <si>
     <t>Поступления утилизационного сбора в федеральный бюджет Российской Федерации в 2016 году составили 89,8 млрд. рублей и относительно 2015 года увеличились на 27,7 млрд. рублей, или на 44,6 процента</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
   </si>
   <si>
     <t>Плательщик, налог на добавленную стоимость, НДС</t>
-  </si>
-  <si>
-    <t>Налогоплательщиками налога на добавленную стоимость являются организации, индивидуальные предприниматели, а также лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Таможенного союза</t>
   </si>
   <si>
     <t>Налогоплательщиками налога на добавленную стоимость являются организации, индивидуальные предприниматели, а также лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Таможенного союза, определяемые в соответствии с таможенным законодательством Таможенного союза и законодательства РФ о таможенном деле</t>
@@ -646,9 +640,6 @@
     <t>Плательщик, налогоплательщик, акциз, кто</t>
   </si>
   <si>
-    <t>Налогоплательщиками акциза признаются: организации; индивидуальные предприниматели; лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза</t>
-  </si>
-  <si>
     <t>Налогоплательщиками акциза признаются: 
 организации; индивидуальные предприниматели; лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза, определяемые в соответствии с правом Евразийского экономического союза и законодательством Российской Федерации о таможенном деле</t>
   </si>
@@ -696,9 +687,6 @@
   </si>
   <si>
     <t>Преимущества, досудебное урегулирование, налоговые споры, судебное разбирательство, налогоплательщик</t>
-  </si>
-  <si>
-    <t>При досудебном урегулировании налоговых споров для налогоплательщика отсутствуют материальные издержки</t>
   </si>
   <si>
     <t>Досудебное урегулирование налоговых споров перед судебным разбирательством имеет следующие преимущества для налогоплательщика:
@@ -765,9 +753,6 @@
   </si>
   <si>
     <t>Взаимозависимые лица - это лица, особенности отношений между которыми могут оказывать влияние на условия и (или) результаты сделок, совершаемых ими, и (или) на экономические результаты их деятельности или деятельности представляемых ими лиц</t>
-  </si>
-  <si>
-    <t>Взаимозависимые лица - это лица, особенности отношений между которыми могут оказывать влияние на условия, результаты сделок, совершаемых ими, на экономические результаты их деятельности или деятельности представляемых ими лиц</t>
   </si>
   <si>
     <t>Что, принцип, вытянутой руки</t>
@@ -803,9 +788,6 @@
   </si>
   <si>
     <t>Методы, используются, проведение, налоговый контроль, совершение, сделки, между, взаимозависимые лица</t>
-  </si>
-  <si>
-    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются метод сопоставимых рыночных цен, метод цены последующей реализации, затратный метод, метод сопоставимой рентабельности, метод распределения прибыли</t>
   </si>
   <si>
     <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются один или комбинация нескольких методов из пяти:
@@ -1003,9 +985,6 @@
   </si>
   <si>
     <t>Чем полезен, что содержит, Интернет-сервис, Личный кабинет, налогоплательщик, физические лица</t>
-  </si>
-  <si>
-    <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику: контролировать состояние расчетов с бюджетом, получать и распечатывать налоговые уведомления и квитанции на уплату налоговых платежей, оплачивать их, а так же скачивать программы для заполнения декларации по форме номер три НДФЛ, заполнять ее и в режиме онлайн, направлять налоговую инспекцию</t>
   </si>
   <si>
     <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику:
@@ -1404,9 +1383,6 @@
     <t>Маркировка, товар, нормативные, правовые, акты, регулируют, сферу</t>
   </si>
   <si>
-    <t>С основными нормативными правовыми актами, регулирующими сферу маркировки товара в Российской Федерации можно ознакомиться в текстовом ответе на вопрос</t>
-  </si>
-  <si>
     <t>Основные нормативные правовые акты, регулирующие сферу маркировки товара в Российской Федерации:
 1. Соглашение между странами ЕАЭС о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 года;
 2. Постановление Правительства Российской Федерации от 11.08.2016 №787 «О реализации пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» и признании утратившим силу постановления Правительства Российской Федерации от 24 марта 2016 года №235»;
@@ -1426,9 +1402,6 @@
   </si>
   <si>
     <t>Роль, федеральные, органы, исполнительной власти, в сфере, маркировка товаров, контрольные знаки, мех, меховые изделия, лекарства, лекарственные препараты</t>
-  </si>
-  <si>
-    <t>Федеральная налоговая служба осуществляет функции оператора информационной системы маркировки меховых изделий и лекарственных препаратов. Остальные федеральные органы исполнительной власти контрольные функции</t>
   </si>
   <si>
     <t>Между федеральными органами исполнительной власти в сфере маркировки товаров контрольными знаками распределены основные функции.
@@ -1587,16 +1560,10 @@
     <t>Контрольно-кассовая техника, отправлять, покупатель, электронный чек, обойтись, не выдавать, без, бумажный чек,1 февраля 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Кассир обязан выдать бумажный чек покупателю, если до момента расчёта не предоставлено абонентского номера или адреса электронной почты. Бумажные чеки остаются обязательными в отдалённых от сетей связи местностях, где передача документов в налоговые органы в электронной форме не предусмотрена </t>
-  </si>
-  <si>
     <t>Кассир обязан выдать бумажный чек покупателю, если тот заранее, до момента расчёта, не предоставит абонентский номер или адрес электронной почты. Также бумажные чеки остаются обязательными в отдалённых от сетей связи местностях, где передача документов в налоговые органы в электронной форме не предусмотрена. При этом кассовый чек и БСО, отправленные на электронный адрес покупателя и распечатанные им, приравниваются к кассовому чеку или БСО, отпечатанным ККТ на бумажном носителе. Также печать кассового чека не предусмотрена при осуществлении расчетов при покупках в сети «Интернет»</t>
   </si>
   <si>
     <t>Хранить, данные о покупке, оплате услуг, в виде электронного чека, налоговая служба, ФНС, предприниматели, обращаться, покупатель, восстановить,  потеряет, бумажный чек</t>
-  </si>
-  <si>
-    <t>Информация о чеках хранится как у Налоговой службы, так и в фискальном накопителе кассового аппарата. Покупатель сможет найти свой чек с помощью соответствующего сервиса на сайте Налоговой службы или воспользовавшись бесплатным мобильным приложением</t>
   </si>
   <si>
     <t>Информация о чеках хранится как у Налоговой службы, так и в фискальном накопителе кассового аппарата. Покупатель сможет найти свой чек с помощью соответствующего сервиса на сайте Налоговой службы или воспользовавшись бесплатным мобильным приложением. Важно, что новая технология дает гражданину дополнительную защиту своих прав как потребителя за счет возможности не только получить электронный чек, но и самостоятельно быстро и удобно проверить легальность кассового чека через соответствующее мобильное приложение и в случае возникновения вопросов тут же направить жалобу в Налоговую службу</t>
@@ -1647,10 +1614,6 @@
   </si>
   <si>
     <t>Система, ЦОД, центр, обработки данных, Министерство Финансов, Минфин, что</t>
-  </si>
-  <si>
-    <t>Система центров обработки данных Министерства финансов Российской Федерации и подведомственных ему служб строится на основе принципов катастрофоустойчивости:
-строительство основного Федерального центра обработки данных и резервных ЦОД, «горячее» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от друга</t>
   </si>
   <si>
     <t xml:space="preserve">Федеральная налоговая служба в соответствии с Постановлением Правительства РФ от 05.12.2012 № 995 «Об осуществлении бюджетных инвестиций в проектирование и строительство объектов капитального строительства - центров обработки данных, подведомственных Федеральной налоговой службе» создает системы ЦОД (центров обработки данных) Министерства финансов Российской Федерации и подведомственных ему служб, которая строится на основе принципов катастрофоустойчивости: строительство основного ФЦОД и резервных ЦОД, «горячее» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от друга. 
@@ -1686,30 +1649,15 @@
     <t>Каким образом обеспечиваются сохранность информации, хранящейся и обрабатываемой в ЦОД, входящих в систему ЦОД Минфина России и гарантируется доступность сервисов, которые представляет АИС налоговых органов?</t>
   </si>
   <si>
-    <t>В целях обеспечения гарантированного бесперебойного функционирования и доступности центров обработки данных, входящие в систему ЦОД Минфина России, разработаны и построены в соответствии с рекомендациями международного стандарта и в целях обеспечения катастрофоустойчивости системы - они разнесены географически</t>
-  </si>
-  <si>
     <t>В целях обеспечения гарантированного бесперебойного функционирования и доступности ЦОД, входящие в систему ЦОД Минфина России, разработаны и построены в соответствии с рекомендациями уровня Tier 3 международного стандарта TIA- ETA- 942 «Телекоммуникационная инфраструктура ЦОД».               Проектная документация ЦОД прошла сертификацию в Uptime Institute по уровню Tier 3. В целях обеспечения катастрофоустойчивости системы ЦОД Минфина России они разнесены географически</t>
   </si>
   <si>
-    <t>В две тысячи шестнадцатом году прирост поступлений в консолидированный бюджет РоссийскойФедерации наблюдался по эН  Дэ Фэ эЛ, налогу на прибыль, эН Дэ  эС, акцизам, имущественным налогам, снижение поступлений - по эН Дэ Пэ И</t>
-  </si>
-  <si>
     <t>Основную роль в формировании доходов консолидированных бюджетов субъектов Российской Федерации в две тысячи шестнадцатом году сыграли эН Дэ Фэ эЛ и налог на прибыль, суммарная доля которых составила семьдесят процентов</t>
   </si>
   <si>
     <t>В две тысячи шестнадцатом году прирост поступлений в консолидированные бюджеты субъектов Российской Федерации наблюдался за счет акцизов, налога на прибыль, эН Дэ Фэ эЛ и имущественных налогов</t>
   </si>
   <si>
-    <t xml:space="preserve">В две тысячи шестнадцатом году поступления налога на добычу полезных ископаемых в консолидированный бюджет Российской Федерации снизились на девять целых две десятых процента и составили два триллиона девятьсот двадцать девять миллиарда четыреста миллионов рублей.
-Снижение поступлений по налогу обусловлено уменьшением поступлений по эН Дэ Пэ И на нефть в результате снижения цены на нефть марки Urals в две тысячи шестнадцатом году на восемнадцать целых три десятых процента
-</t>
-  </si>
-  <si>
-    <t>Поступления налога на доходы физических лиц в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили три триллиона семнадцать миллиардов триста миллионов рублей, что на семь целых пять десятых процента больше, чем в две тысячи пятнадцатом году. 
-В общей сумме поступлений эН Дэ Фэ эЛ девяносто пять целых четыре десятых процента занимают поступления налога, уплачиваемого налоговыми агентам</t>
-  </si>
-  <si>
     <t>Налоговая ставка по налогу на прибыль установлена в размере двадцати процентов, из них с две тысячи семнадцатого года три процента зачисляется в федеральный бюджет, семнадцать процентов - в бюджеты субъектов Российской Федерации</t>
   </si>
   <si>
@@ -1719,9 +1667,6 @@
     <t>В две тысячи шестнадцатом году в общем объеме поступлений в консолидированный бюджет Российской Федерации, администрируемых Фэ эН эС России, сорок восемь процентов составили поступления в федеральный бюджет, что на два процентных пункта меньше, чем в две тысячи пятнадцатом году</t>
   </si>
   <si>
-    <t>Формирование доходов консолидированного бюджета Российской Федерации администрируемых Фэ эН эС России в две тысячи шестнадцатом году на семьдесят восемь процентов обеспечено за счет поступления эН Дэ Фэ эЛ, эН Дэ Пэ И, налога на прибыль и эН Дэ эС. В две тысячи пятнадцатом году совокупная доля указанных налогов составляла восемьдесят процентов</t>
-  </si>
-  <si>
     <t>Поступления администрируемых Фэ эН эС России доходов в федеральный бюджет в две тысячи шестнадцатом году составили шесть триллионов восемьсот восемьдесят миллиардов рублей, что на ноль целых семь десятых процента больше, чем в две тысячи пятнадцатом году</t>
   </si>
   <si>
@@ -1735,24 +1680,12 @@
   </si>
   <si>
     <t>Оценка качества предоставления государственных услуг Фэ эН эС России осуществляется с помощью телефонных или смс-опросов, с помощью терминальных устройств в налоговых органах и на специализированном сайте «Ваш контроль»</t>
-  </si>
-  <si>
-    <t>В налоговые органы можно обратиться в устной форме или по телефонам справочной службы налоговых органов, в письменной форме - по адресу налоговых органов, в форме электронного документа - посредством online – сервисов «Обратиться в Фэ эН эС России», «Личный кабинет налогоплательщика физического лица» или на «Едином портале государственных и муниципальных услуг», а также по телекоммуникационным каналам связи с применением усиленной квалифицированной подписи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В справочную службу Фэ эН эС России можно обратиться по  бесплатному общефедеральному телефонному номеру единого Контакт-центра восемь, восемьсот, двести двадцать два, двадцать два, двадцать два </t>
   </si>
   <si>
     <t>На официальном сайте Фэ эН эС России пользовательское меню предусматривает навигацию по сайту на основе жизненных ситуаций, с которыми сталкиваются пользователи.
 Для решения узкоспециализированных вопросов, можно воспользоваться информационным меню, которое позволяет работать с тематическими разделами сайта</t>
   </si>
   <si>
-    <t>Обратиться в налоговую инспекцию без личного визита предоставляют возможность интерактивные сервисы на официальном сайте Фэ эН эС России: «Обратиться в Фэ эН эС России» и личные кабинеты налогоплательщика для физических лиц, индивидуального предпринимателя или юридического лица</t>
-  </si>
-  <si>
-    <t>Регистрационную карту, содержащую логин и пароль, можно получить лично в любой инспекции Фэ эН эС России, или с помощью учетной записи на Едином портале государственных и муниципальных услуг, подтвержденной лично или с помощью усиленной квалифицированной электронной подписи</t>
-  </si>
-  <si>
     <t>При возникновении затруднений при работе с каким-либо сервисом Фэ эН эС России, для оперативного устранения проблемы необходимо обратиться в службу технической поддержки</t>
   </si>
   <si>
@@ -1775,31 +1708,6 @@
     <t>В ЦОД хранят и обрабатывают свои информационные ресурсы: Минфин России, Фэ эН эС России, Федеральное казначейство</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Выписку из соответствующего реестра или справку об отсутствии запрашиваемой информации можно получить с помощью интернет - сервиса «Предоставление сведений из </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Е Г РЮЛ / Е Г РИП</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> о конкретном юридическом лице / индивидуальном предпринимателе в форме электронного документа»</t>
-    </r>
-  </si>
-  <si>
     <t>Сервис «Узнай свой И эН эН» позволяет узнать свой идентификационный номер налогоплательщика, а также узнать И эН эН любого физического лица</t>
   </si>
   <si>
@@ -1807,12 +1715,6 @@
   </si>
   <si>
     <t>Для входа в Личный кабинет индивидуального предпринимателя можно воспользоваться, при наличии, логином и паролем доступа к «Личному кабинету налогоплательщика для физических лиц», но при первом входе потребуется ввести дополнительные реквизиты. Или можно использовать Квалифицированный сертификат ключа проверки электронной подписи</t>
-  </si>
-  <si>
-    <t>Для физических лиц в Интернет-сервисе «Личный кабинет налогоплательщика для физических лиц» предусмотрена возможность не только заполнения, но и направления налоговой декларации по форме номер три эН Дэ Фэ эЛ. Сервис позволяет прикреплять и направлять в электронном виде вложения дополнительных документов, прилагаемых к декларации</t>
-  </si>
-  <si>
-    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют страны Е А Э С: Российская Федерация, Республики Армения, Беларусь, Казахстан и Кыргызская Республика</t>
   </si>
   <si>
     <r>
@@ -1840,9 +1742,6 @@
     </r>
   </si>
   <si>
-    <t>С информацией о правилах и порядке маркировки товаров можно ознакомиться: в разделе «Маркировка товаров» на официальном сайте Фэ эН эС России или в разделе «Маркировка изделий из натурального меха» на официальном сайте Фэ Тэ эС России</t>
-  </si>
-  <si>
     <t xml:space="preserve">Предусмотрен поэтапный переход на применение Ка Ка Тэ, передающей информацию о расчётах в адрес налоговых органов в электронном виде.
 С первого июля две тысячи семнадцатого года вступили в силу требования для применяемой в настоящее время Ка Ка Тэ. 
 С первого июля две тысячи восемнадцатого года правила вступят в силу в отношении лиц, которые в настоящее время не обязаны применять Ка Ка Тэ </t>
@@ -1873,13 +1772,7 @@
     <t>Структура администрируемых ФНС России доходов федерального бюджета РФ 2016 г</t>
   </si>
   <si>
-    <t>Формирование администрируемых Фэ эН эС России доходов федерального бюджета в две тысячи шестнадцатом году на семьдесят девять процентов обеспечено за счет поступления эН Дэ Пэ И и эН Дэ эС</t>
-  </si>
-  <si>
     <t>Формирование администрируемых ФНС России доходов федерального бюджета в 2016 году на 79% обеспечено за счет поступления НДПИ (41%), НДС (38%). Поступления акцизов составили 9% от общего объема поступлений, налога на прибыль - 7%, других налогов - 5%</t>
-  </si>
-  <si>
-    <t>В две тысячи шестнадцатом году прирост поступлений в федеральный бюджет наблюдался за счет акцизов, эН Дэ эС, налога на прибыль по ставке двадцать процентов, снижение поступлений за счет эН Дэ Пэ И</t>
   </si>
   <si>
     <t>В 2016 году наблюдался прирост поступлений в федеральный бюджет основных налогов администрируемых ФНС России, по сравнению с 2015 годом, за счёт акцизов (+19,8%), НДС (+8,5%), налога на прибыль (-0,1%) в т.ч. налога на прибыль по ставке 20% (+10,7%) и снижение поступлений - за счет НДПИ (-9,4%)</t>
@@ -2152,12 +2045,238 @@
   <si>
     <t>Поступления, утилизационный сбор, федеральный бюджет, 2015, 2016</t>
   </si>
+  <si>
+    <t>В две тысячи шестнадцатом году прирост поступлений в консолидированный бюджет РоссийскойФедерации наблюдался по эНДэФэ+эЛ, налогу на прибыль, эНДэ+эС, акцизам, имущественным налогам; снижение поступлений - по эНДэПэ+И</t>
+  </si>
+  <si>
+    <t>Формирование администрируемых Фэ эН эС России доходов федерального бюджета в две тысячи шестнадцатом году на семьдесят девять процентов обеспечено за счет поступления эНДэПэ+И и эНДэ+эС</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году прирост поступлений в федеральный бюджет наблюдался за счет акцизов, эНДэ+эС, налога на прибыль по ставке двадцать процентов, снижение поступлений за счет эНДэПэ+И</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В две тысячи шестнадцатом году поступления налога на добычу полезных ископаемых в консолидированный бюджет Российской Федерации снизились на девять целых две десятых процента и составили два триллиона девятьсот двадцать девять миллиарда четыреста миллионов рублей.
+Снижение поступлений по налогу обусловлено уменьшением поступлений по эНДэПэ+И на нефть в результате снижения цен+ы на нефть марки Urals в две тысячи шестнадцатом году на восемнадцать целых три десятых процента
+</t>
+  </si>
+  <si>
+    <t>Поступления налога на доходы физических лиц в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили три триллиона семнадцать миллиардов триста миллионов рублей, что на семь целых пять десятых процента больше, чем в две тысячи пятнадцатом году. 
+В общей сумме поступлений эНДэФэ+эЛ - девяносто пять целых четыре десятых процента занимают поступления налога, уплачиваемого налоговыми агентами</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поступления утилизационного сбора в федеральный бюджет Российской Федерации в две тысячи шестнадцатом году составили восемьдесят девять миллиардов восемьсот миллионов рублей, что на сорок четыре процента </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>больше,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> чем в две тысячи пятнадцатом году </t>
+    </r>
+  </si>
+  <si>
+    <t>Налогоплательщиками налога на добавленную стоимость являются организации, индивидуальные предприниматели, а также л+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Таможенного союза</t>
+  </si>
+  <si>
+    <t>Налогоплательщиками акциза признаются: организации; индивидуальные предприниматели; л+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза</t>
+  </si>
+  <si>
+    <t>Формирование доходов консолидированного бюджета Российской Федерации администрируемых Фэ эН эС России в две тысячи шестнадцатом году на семьдесят восемь процентов обеспечено за счет поступления эНДэФээЛ, эНДэПэ+И, налога на прибыль и эНДэ+эС. В две тысячи пятнадцатом году совокупная доля указанных налогов составляла восемьдесят процентов</t>
+  </si>
+  <si>
+    <t>При досуд+ебном урегулировании налоговых споров для налогоплательщика отсутствуют материальные издержки</t>
+  </si>
+  <si>
+    <t>Взаимозависимые лица - это л+ица, особенности отношений между которыми могут оказывать влияние на условия, результаты сделок, совершаемых ими, на экономические результаты их деятельности или деятельности представляемых ими лиц</t>
+  </si>
+  <si>
+    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются метод сопоставимых рыночных цен, метод цен+ы последующей реализации, затратный метод, метод сопоставимой рентабельности, метод распределения прибыли</t>
+  </si>
+  <si>
+    <t>В налоговые органы можно обратиться в устной форме или по телефонам справочной службы налоговых органов, в письменной форме - по адресу налоговых органов, в форме электронного документа - посредством online – сервисов «Обратиться в ФээН+эС России», «Личный кабинет налогоплательщика физического лиц+а» или на «Едином портале государственных и муниципальных услуг», а также по телекоммуникационным каналам связи с применением усиленной квалифицированной подписи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В справочную службу Фэ эН эС России можно обратиться по  бесплатному общефедеральному телефонному номеру единого Контакт-центра: восемь, восемьсот, двести двадцать два, двадцать два, двадцать два </t>
+  </si>
+  <si>
+    <t>Обратиться в налоговую инспекцию без личного визита предоставляют возможность интерактивные сервисы на официальном сайте ФээН+эС России: 
+«Обратиться в ФээН+эС России»;  и    личные кабинеты налогоплательщика для физических лиц, индивидуального предпринимателя или юридического лица</t>
+  </si>
+  <si>
+    <t>Регистрационную карту, содержащую логин и пароль, можно получить лично в любой инспекции ФээН+эС России, или с помощью учетной записи на Едином портале государственных и муниципальных услуг, подтвержденной лично или с помощью усиленной квалифицированной электронной подписи</t>
+  </si>
+  <si>
+    <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику: контролировать состояние расчетов с бюджетом, получать и распечатывать налоговые уведомления и квитанции на уплату налоговых платежей, оплачивать их, а так же скачивать программы для заполнения декларации по форме номер три НДФЛ, заполнять ее и в режиме онлайн, направлять в налоговую инспекцию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выписку из соответствующего реестра или справку об отсутствии запрашиваемой информации можно получить с помощью интернет-сервиса «Предоставление сведений из </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ЕГР+ЮЛ / ЕГР+ИП   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> о конкретном юридическом лице / индивидуальном предпринимателе в форме электронного документа»</t>
+    </r>
+  </si>
+  <si>
+    <t>Для физических лиц в Интернет-сервисе «Личный кабинет налогоплательщика для физических лиц» предусмотрена возможность не только заполнения, но и направления налоговой декларации по форме номер три эНДэФэ+эЛ. Сервис позволяет прикреплять и направлять в электронном виде вложения дополнительных документов, прилагаемых к декларации</t>
+  </si>
+  <si>
+    <t>С основными нормативными правовыми актами, регулирующими сферу маркировки товара в Российской Федерации можно ознакомиться в т+екстовом ответе на вопрос</t>
+  </si>
+  <si>
+    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют стр+аны Е А Э С: Российская Федерация, Республики Армения, Беларусь, Казахстан и Кыргызская Республика</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Федеральная налоговая служба осуществляет функции оператора информационной системы маркировки меховых изделий и лекарственных препаратов. Остальные федеральные органы исполнительной власти </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>осуществляют</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> контрольные функции</t>
+    </r>
+  </si>
+  <si>
+    <t>С информацией о правилах и порядке маркировки товаров можно ознакомиться: в разделе «Маркировка товаров» на официальном сайте Фэ эН эС России или в разделе «Маркировка изделий из натурального меха» на официальном сайте ФэТэ+эС России</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кассир обязан выдать бумажный чек покупателю, если до момента расчёта не предоставлено абонентского н+омера или адреса электронной почты. Бумажные чеки остаются обязательными в отдалённых от сетей связи местностях, где передача документов в налоговые органы в электронной форме не предусмотрена </t>
+  </si>
+  <si>
+    <t>Информация о ч+еках хранится как у Налоговой службы, так и в фискальном накопителе кассового аппарата. Покупатель сможет найти свой чек с помощью соответствующего сервиса на сайте Налоговой службы или воспользовавшись бесплатным мобильным приложением</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Система центров обработки данных Министерства финансов Российской Федерации и подведомственных ему служб строится на основе принципов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>катастр+офоуст+ойчивости:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+строительство основного Федерального центра обработки данных и резервных ЦОД, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«гор+ячее</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>др+уга</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>В целях о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>бесп\+ечения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гарантированного бесперебойного функционирования и доступности центров обработки данных, входящие в систему ЦОД Минфина России, разработаны и построены в соответствии с рекомендациями международного стандарта и в целях обеспечения катастрофоустойчивости системы - они разнесены географически</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2201,7 +2320,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2211,6 +2330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2284,6 +2409,12 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2597,29 +2728,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="92.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="42.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" style="2" customWidth="1"/>
@@ -2628,7 +2758,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2674,7 +2804,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>112</v>
@@ -2690,7 +2820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2698,10 +2828,10 @@
         <v>115</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>116</v>
@@ -2713,15 +2843,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>519</v>
+      <c r="C4" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>121</v>
@@ -2736,15 +2866,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>511</v>
+        <v>526</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>124</v>
@@ -2759,7 +2889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -2767,10 +2897,10 @@
         <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>128</v>
@@ -2782,18 +2912,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>554</v>
+        <v>528</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>555</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>131</v>
@@ -2807,18 +2937,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>556</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>135</v>
@@ -2832,7 +2962,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2840,10 +2970,10 @@
         <v>138</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>139</v>
@@ -2855,7 +2985,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -2863,7 +2993,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>144</v>
@@ -2878,21 +3008,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>147</v>
@@ -2901,12 +3031,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>149</v>
@@ -2915,7 +3045,7 @@
         <v>150</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>151</v>
@@ -2924,12 +3054,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>153</v>
@@ -2938,7 +3068,7 @@
         <v>154</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>155</v>
@@ -2947,21 +3077,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="299.25">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>514</v>
+        <v>539</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>557</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>158</v>
@@ -2970,21 +3100,21 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="315">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>161</v>
@@ -2993,12 +3123,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="378">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>163</v>
@@ -3007,7 +3137,7 @@
         <v>164</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>165</v>
@@ -3016,21 +3146,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="191.25" customHeight="1">
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>515</v>
+        <v>544</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>168</v>
@@ -3039,1576 +3169,1576 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="377.25" customHeight="1">
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="377.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>171</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="110.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="112.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="31.5">
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="47.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="105.75" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="78.75">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="78.75">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="63">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="63">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="47.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="78.75">
+    </row>
+    <row r="33" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="94.5">
+    </row>
+    <row r="34" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="126">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="63">
+    </row>
+    <row r="36" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>564</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="94.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="63">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="207.75" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="63">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="126">
+    </row>
+    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="94.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="110.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="78.75">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="220.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>525</v>
+        <v>259</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>566</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="63">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="149.25" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="94.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="173.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>528</v>
+        <v>263</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>568</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="126">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="220.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="252" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>310</v>
+        <v>570</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="174" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>537</v>
+        <v>266</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>571</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="94.5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="94.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="94.5" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="47.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="110.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="63">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="63">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="63">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="78.75">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="78.75">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="63">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="78.75">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="110.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="110.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="110.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="110.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="156" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="126">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="157.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="236.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="378" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="94.5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="220.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="47.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="207" customHeight="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="47.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="126">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="315">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>429</v>
+        <v>403</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>573</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="94.5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>542</v>
+        <v>404</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>574</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="204.75">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>434</v>
+        <v>405</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>575</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="63">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="78.75">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="109.5" customHeight="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="78.75">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="204.75">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="126">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="110.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="141.75">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="78.75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="110.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>482</v>
+        <v>445</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>577</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="110.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>485</v>
+        <v>446</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>578</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="78.75">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="78.75">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="81.75" customHeight="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="63">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="78.75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="94.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="330.75">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>579</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="78.75">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="181.5" customHeight="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>580</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/23_questions.xlsx
+++ b/data/minfin/23_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -351,18 +351,9 @@
     <t>23.99</t>
   </si>
   <si>
-    <t>Структура доходов консолидированного бюджета РФ администрируемых ФНС России в 2016 году</t>
-  </si>
-  <si>
     <t>Структура, консолидированного, бюджета, администрируемые, Федеральная налоговая служба, ФНС России, РФ, Российская Федерация, 2016</t>
   </si>
   <si>
-    <t>По поступлениям администрируемым ФНС России, удельный вес поступлений в федеральный бюджет в общем объеме поступлений в консолидированный бюджет Российской Федерации в 2016 году составил 48%, что на 2 п.п. меньше, чем в 2015 году</t>
-  </si>
-  <si>
-    <t>Структура доходов консолидированного бюджета Российской Федерации администрируемых ФНС России в 2016 году</t>
-  </si>
-  <si>
     <t>23.1.jpg</t>
   </si>
   <si>
@@ -378,25 +369,13 @@
     <t>23.2.jpg</t>
   </si>
   <si>
-    <t>Структура доходов консолидированного бюджета РФ администрируемых ФНС России в 2015-2016 гг</t>
-  </si>
-  <si>
     <t>Структура, доходы, консолидированный бюджет, Российская Федерация, РФ, администрируемые, ФНС России, 2015, 2016</t>
   </si>
   <si>
-    <t>Формирование всех доходов консолидированного бюджета Российской Федерации администрируемых ФНС России в 2016 году на 78% обеспечено за счет поступления НДФЛ – 21%, НДПИ – 20%, налога на прибыль – 19% и НДС – 18%. В 2015 году совокупная доля указанных налогов составляла 80%</t>
-  </si>
-  <si>
     <t>23.3.jpg</t>
   </si>
   <si>
     <t>Динамика, поступления, виды, налоги, консолидированный бюджет, Российская Федерация, РФ, администрируемые, ФНС России, 2015, 2016</t>
-  </si>
-  <si>
-    <t>В 2016 году наблюдался прирост поступлений в консолидированный бюджет Российской Федерации основных налогов администрируемых ФНС России по сравнению с 2015 годом за счёт НДФЛ (+7,5%), налога на прибыль (+6,6%), НДС (+8,5%), акцизов (+27,6%), имущественных налогов (+4,5%) и снижение поступлений - за счет НДПИ (-9,2%)</t>
-  </si>
-  <si>
-    <t>Динамика поступлений основных налогов администрируемых ФНС России в консолидированный бюджет Российской Федерации в 2016 году</t>
   </si>
   <si>
     <t>23.4.jpg</t>
@@ -424,15 +403,9 @@
     <t>23.6.jpg</t>
   </si>
   <si>
-    <t>Динамика поступлений в федеральный бюджет основных видов налогов администрируемых ФНС России в 2015-2016 гг</t>
-  </si>
-  <si>
     <t>Динамика, поступления, виды, налоги, федеральный бюджет, ФБ, администрируемые, Федеральная налоговая служба, ФНС, России, 2015, 2016</t>
   </si>
   <si>
-    <t>Динамика поступлений основных налогов администрируемых ФНС России в федеральный бюджет в 2016 году</t>
-  </si>
-  <si>
     <t>23.7.jpg</t>
   </si>
   <si>
@@ -463,16 +436,10 @@
     <t>23.9.jpg</t>
   </si>
   <si>
-    <t>Динамика поступлений основных налогов администрируемых ФНС России в консолидированные бюджеты субъектов Российской Федерации в 2016 году</t>
-  </si>
-  <si>
     <t>23.10.jpg</t>
   </si>
   <si>
     <t>Поступления налога на прибыль организаций в две тысячи шестнадцатом году составили два триллиона семьсот семьдесят миллиардов двести миллионов рублей, что на шесть целых шесть десятых процента больше, чем в две тысячи пятнадцатом году</t>
-  </si>
-  <si>
-    <t>Поступления налога на прибыль организаций в консолидированный бюджет Российской Федерации, администратором которых является ФНС России, в 2016 году составили 2770,2 млрд. рублей, что на 171,5 млрд. рублей или на 6,6% больше, чем в 2015 году</t>
   </si>
   <si>
     <t>Поступления налога на прибыль организаций в консолидированный бюджет Российской Федерации в 2015-2016 гг</t>
@@ -520,15 +487,6 @@
 </t>
   </si>
   <si>
-    <t>По Налоговому кодексу Российской Федерации существует 4 вида имущественных налогов: 
-• налог на имущество физических лиц, 
-• налог на имущество организаций, 
-• транспортный налог, 
-• земельный налог.
-Поступления имущественных налогов в консолидированный бюджет Российской Федерации в 2016 году составили 1116,9 млрд. рублей, что на 48,5 млрд. рублей или на 4,5% больше, чем в 2015 году. 
-Основная доля поступлений приходится на налог на имущество организаций (68,5%), поступления по которому составили 764,5 млрд. рублей, что на 52,1 млрд. рублей, чем в 2015 году</t>
-  </si>
-  <si>
     <t>Динамика поступления имущественных налогов в консолидированный бюджет Российской Федерации в 2015-2016 гг</t>
   </si>
   <si>
@@ -562,9 +520,6 @@
   </si>
   <si>
     <t>23.17.jpg</t>
-  </si>
-  <si>
-    <t>Кто является плательщиком налога на добавленную стоимость</t>
   </si>
   <si>
     <t>Плательщик, налог на добавленную стоимость, НДС</t>
@@ -1759,35 +1714,13 @@
     <t xml:space="preserve">Поступление администрируемых Фэ Нэ эС России доходов в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составило четырнадцать триллионов четыреста восемьдесят три миллиарда девятьсот миллионов рублей, что на пять процентов больше, чем в две тысячи пятнадцатом году </t>
   </si>
   <si>
-    <t>Поступление администрируемых ФНС России доходов в консолидированный бюджет Российской Федерации в 2016 году составило 14482,9 млрд. рублей, что на 694,6 млн. рублей, или на 5,0% больше, чем в 2015 году.
-Поступление администрируемых ФНС России доходов в консолидированный бюджет Российской Федерации в 2015 году составило 13 788,3 млрд. рублей</t>
-  </si>
-  <si>
-    <t>Динамика поступлений основных видов налогов администрируемых ФНС России в консолидированный бюджет РФ в 2015-2016 гг</t>
-  </si>
-  <si>
-    <t>Поступления администрируемых ФНС России доходов в федеральный бюджет в 2016 году составили 6929,1 млрд. рублей, что на 48,7 млрд. рублей или на 0,7% больше, чем в 2015 году. Поступления в 2015 году составили 6880,45 млрд. рублей</t>
-  </si>
-  <si>
     <t>Структура администрируемых ФНС России доходов федерального бюджета РФ 2016 г</t>
   </si>
   <si>
     <t>Формирование администрируемых ФНС России доходов федерального бюджета в 2016 году на 79% обеспечено за счет поступления НДПИ (41%), НДС (38%). Поступления акцизов составили 9% от общего объема поступлений, налога на прибыль - 7%, других налогов - 5%</t>
   </si>
   <si>
-    <t>В 2016 году наблюдался прирост поступлений в федеральный бюджет основных налогов администрируемых ФНС России, по сравнению с 2015 годом, за счёт акцизов (+19,8%), НДС (+8,5%), налога на прибыль (-0,1%) в т.ч. налога на прибыль по ставке 20% (+10,7%) и снижение поступлений - за счет НДПИ (-9,4%)</t>
-  </si>
-  <si>
     <t>Поступления администрируемых Фэ эН эС России доходов в консолидированные бюджеты субъектов Российской Федерации в две тысячи шестнадцатом году составили семь триллионов пятьсот пятьдесят четыре миллиарда рублей, что на девять целых четыре десятых процента больше, чем в две тысячи пятнадцатом году</t>
-  </si>
-  <si>
-    <t>По администрируем ФНС России доходам, в  консолидированные бюджеты субъектов Российской Федерации в 2016 году поступило 7 553,7 млрд. рублей, что на 646 млрд. рублей или на 9,4% больше, чем в 2015 году. В 2015 году поступило 6 908 млрд. рублей</t>
-  </si>
-  <si>
-    <t>Динамика поступлений основных налогов администрируемых ФНС России в консолидированные бюджеты субъектов РФ в 2015-2016 гг</t>
-  </si>
-  <si>
-    <t>В 2016 году наблюдался прирост поступлений в консолидированные бюджеты субъектов Российской Федерации основных налогов администрируемых ФНС России, по сравнению с 2015 годом, за счёт акцизов (+36%), налога на прибыль (+8,1%), НДФЛ (+7,5%), имущественных налогов (+4,5%)</t>
   </si>
   <si>
     <r>
@@ -1902,9 +1835,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Какие имущественные налоги существуют в России </t>
-  </si>
-  <si>
     <t>Имущественные налоги, существуют, Россия, Российская Федерация, РФ</t>
   </si>
   <si>
@@ -2003,40 +1933,6 @@
         <charset val="204"/>
       </rPr>
       <t>2016</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Поступления налогов на совокупный доход в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили триста восемьдесят миллиардов триста девяносто миллионов рублей, что на десять целых одну десятую процента больше, чем в две тысячи пятнадцатом году. 
-Семьдесят пять целых пять десятых процента поступлений принадлежит единому налогу, взимаемому в связи с применением упрощенной системы налогообложения
-Полный (текстовый) ответ:
-По Налоговому кодексу Российской Федерации существует 4 вида специальных налоговых режимов: 
-• упрощённая система налогообложения,
-• единый налог на вменённый доход для отдельных видов деятельности,
-• единый сельскохозяйственный налог,
-• патентная система.
-Поступления налогов на совокупный доход в консолидированный бюджет Российской Федерации в 2016 году составили 380,39 млрд. рублей, что на 10,1% больше, чем в 2015 году. При этом в консолидированные бюджеты субъектов Российской Федерации поступило 380,37 млрд. рублей (в том числе в местные бюджеты – 133,14 млрд. рублей).
-Основная доля поступлений в 2016 году принадлежит единому налогу, взимаемому в связи с применением упрощенной системы налогообложения (75,5%) и единому налогу на вмененный доход (19,5%), -поступления по которым составили</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 287,2 млрд. рублей и 74,2 млрд.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> рублей соответственно</t>
     </r>
   </si>
   <si>
@@ -2271,12 +2167,113 @@
       <t xml:space="preserve"> гарантированного бесперебойного функционирования и доступности центров обработки данных, входящие в систему ЦОД Минфина России, разработаны и построены в соответствии с рекомендациями международного стандарта и в целях обеспечения катастрофоустойчивости системы - они разнесены географически</t>
     </r>
   </si>
+  <si>
+    <t>Какие имущественные налоги существуют в России?</t>
+  </si>
+  <si>
+    <t>Кто является плательщиком налога на добавленную стоимость?</t>
+  </si>
+  <si>
+    <t>По поступлениям, администрируемым ФНС России, удельный вес поступлений в федеральный бюджет в общем объеме поступлений в консолидированный бюджет Российской Федерации в 2016 году составил 48%, что на 2 п.п. меньше, чем в 2015 году</t>
+  </si>
+  <si>
+    <t>Поступление администрируемых ФНС России доходов в консолидированный бюджет Российской Федерации в 2016 году составило 14 482,9 млрд. рублей, что на 694,6 млн. рублей, или на 5,0% больше, чем в 2015 году.
+Поступление администрируемых ФНС России доходов в консолидированный бюджет Российской Федерации в 2015 году составило 13 788,3 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Формирование всех доходов консолидированного бюджета Российской Федерации, администрируемых ФНС России, в 2016 году на 78% обеспечено за счет поступления НДФЛ – 21%, НДПИ – 20%, налога на прибыль – 19% и НДС – 18%. В 2015 году совокупная доля указанных налогов составляла 80%</t>
+  </si>
+  <si>
+    <t>Структура доходов консолидированного бюджета РФ, администрируемых ФНС России, в 2015-2016 гг</t>
+  </si>
+  <si>
+    <t>Структура доходов консолидированного бюджета РФ, администрируемых ФНС России, в 2016 году</t>
+  </si>
+  <si>
+    <t>Динамика поступлений основных видов налогов, администрируемых ФНС России, в консолидированный бюджет РФ в 2015-2016 гг</t>
+  </si>
+  <si>
+    <t>В 2016 году наблюдался прирост поступлений в консолидированный бюджет Российской Федерации основных налогов, администрируемых ФНС России, по сравнению с 2015 годом за счёт НДФЛ (+7,5%), налога на прибыль (+6,6%), НДС (+8,5%), акцизов (+27,6%), имущественных налогов (+4,5%) и снижение поступлений - за счет НДПИ (-9,2%)</t>
+  </si>
+  <si>
+    <t>Динамика поступлений основных налогов, администрируемых ФНС России, в консолидированный бюджет Российской Федерации в 2016 году</t>
+  </si>
+  <si>
+    <t>Структура доходов консолидированного бюджета Российской Федерации, администрируемых ФНС России, в 2016 году</t>
+  </si>
+  <si>
+    <t>Динамика поступлений в федеральный бюджет основных видов налогов, администрируемых ФНС России, в 2015-2016 гг</t>
+  </si>
+  <si>
+    <t>В 2016 году наблюдался прирост поступлений в федеральный бюджет основных налогов, администрируемых ФНС России, по сравнению с 2015 годом, за счёт акцизов (+19,8%), НДС (+8,5%), налога на прибыль (-0,1%) в т.ч. налога на прибыль по ставке 20% (+10,7%) и снижение поступлений - за счет НДПИ (-9,4%)</t>
+  </si>
+  <si>
+    <t>Динамика поступлений основных налогов, администрируемых ФНС России, в федеральный бюджет в 2016 году</t>
+  </si>
+  <si>
+    <t>Динамика поступлений основных налогов, администрируемых ФНС России, в консолидированные бюджеты субъектов РФ в 2015-2016 гг</t>
+  </si>
+  <si>
+    <t>В 2016 году наблюдался прирост поступлений в консолидированные бюджеты субъектов Российской Федерации основных налогов, администрируемых ФНС России, по сравнению с 2015 годом, за счёт акцизов (+36%), налога на прибыль (+8,1%), НДФЛ (+7,5%), имущественных налогов (+4,5%)</t>
+  </si>
+  <si>
+    <t>Динамика поступлений основных налогов, администрируемых ФНС России, в консолидированные бюджеты субъектов Российской Федерации в 2016 году</t>
+  </si>
+  <si>
+    <t>Поступления налога на прибыль организаций в консолидированный бюджет Российской Федерации, администратором которых является ФНС России, в 2016 году составили 2770,2 млрд. рублей, что на 171,5 млрд. рублей, или на 6,6% больше, чем в 2015 году</t>
+  </si>
+  <si>
+    <t>По администрируемым ФНС России доходам, в консолидированные бюджеты субъектов Российской Федерации в 2016 году поступило 7 553,7 млрд. рублей, что на 646 млрд. рублей, или на 9,4% больше, чем в 2015 году. В 2015 году поступило 6 908 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Поступления администрируемых ФНС России доходов в федеральный бюджет в 2016 году составили 6929,1 млрд. рублей, что на 48,7 млрд. рублей, или на 0,7% больше, чем в 2015 году. Поступления в 2015 году составили 6880,45 млрд. рублей</t>
+  </si>
+  <si>
+    <t>По Налоговому кодексу Российской Федерации существует 4 вида имущественных налогов: 
+• налог на имущество физических лиц, 
+• налог на имущество организаций, 
+• транспортный налог, 
+• земельный налог.
+Поступления имущественных налогов в консолидированный бюджет Российской Федерации в 2016 году составили 1116,9 млрд. рублей, что на 48,5 млрд. рублей, или на 4,5% больше, чем в 2015 году. 
+Основная доля поступлений приходится на налог на имущество организаций (68,5%), поступления по которому составили 764,5 млрд. рублей, что на 52,1 млрд. рублей больше, чем в 2015 году</t>
+  </si>
+  <si>
+    <r>
+      <t>По Налоговому кодексу Российской Федерации существует 4 вида специальных налоговых режимов: 
+• упрощённая система налогообложения,
+• единый налог на вменённый доход для отдельных видов деятельности,
+• единый сельскохозяйственный налог,
+• патентная система.
+Поступления налогов на совокупный доход в консолидированный бюджет Российской Федерации в 2016 году составили 380,39 млрд. рублей, что на 10,1% больше, чем в 2015 году. При этом в консолидированные бюджеты субъектов Российской Федерации поступило 380,37 млрд. рублей (в том числе в местные бюджеты – 133,14 млрд. рублей).
+Основная доля поступлений в 2016 году принадлежит единому налогу, взимаемому в связи с применением упрощенной системы налогообложения (75,5%) и единому налогу на вмененный доход (19,5%), поступления по которым составили</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 287,2 млрд. рублей и 74,2 млрд.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> рублей соответственно</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2728,24 +2725,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
@@ -2758,7 +2755,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2796,1949 +2793,1949 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>113</v>
+        <v>569</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>121</v>
+        <v>563</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>113</v>
+        <v>569</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>567</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>125</v>
+        <v>568</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>570</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>136</v>
+        <v>572</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>532</v>
+        <v>577</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>147</v>
+        <v>575</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>150</v>
+        <v>576</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>164</v>
+        <v>579</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="191.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="377.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="377.25" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="110.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="112.5" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>560</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="47.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="47.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="105.75" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="94.5">
       <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
       <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="78.75">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="63">
       <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25">
       <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="78.75">
       <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="110.25">
       <c r="A34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="141.75">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="47.25">
       <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="94.5">
       <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="63">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="207.75" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="47.25">
       <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="126">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="94.5">
       <c r="A42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="126">
       <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="78.75">
       <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="267.75">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="63">
       <c r="A46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="149.25" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="94.5">
       <c r="A48" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="189">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="126">
       <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="252">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="174" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="78.75">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="110.25">
       <c r="A54" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="94.5" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="47.25">
       <c r="A56" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" ht="126">
       <c r="A57" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="63">
       <c r="A58" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="47.25">
       <c r="A59" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="63">
       <c r="A60" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="94.5">
       <c r="A61" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="94.5">
       <c r="A62" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="78.75">
       <c r="A63" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="94.5">
       <c r="A64" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="126">
       <c r="A65" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="126">
       <c r="A66" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="110.25">
       <c r="A67" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="94.5">
       <c r="A68" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="156" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="126">
       <c r="A70" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="173.25">
       <c r="A71" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="378" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="267.75">
       <c r="A72" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="94.5">
       <c r="A73" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="252">
       <c r="A74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="47.25">
       <c r="A75" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="207" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" ht="47.25">
       <c r="A77" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="126">
       <c r="A78" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="299.25">
       <c r="A79" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="94.5">
       <c r="A80" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="220.5">
       <c r="A81" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="78.75">
       <c r="A82" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="63">
       <c r="A83" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="109.5" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="94.5">
       <c r="A85" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="220.5">
       <c r="A86" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="112.5" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="157.5">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="157.5">
       <c r="A89" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="63">
       <c r="A90" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="126">
       <c r="A91" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="126">
       <c r="A92" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="63">
       <c r="A93" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="94.5">
       <c r="A94" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="81.75" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="47.25">
       <c r="A96" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="78.75">
       <c r="A97" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="94.5">
       <c r="A98" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="378">
       <c r="A99" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="78.75">
       <c r="A100" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="181.5" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/23_questions.xlsx
+++ b/data/minfin/23_questions.xlsx
@@ -481,12 +481,6 @@
     <t>23.14.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Существует четыре вида имущественных налогов: налог на имущество физических лиц, налог на имущество организаций, транспортный налог, земельный налог.
-Поступления по ним в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили один триллион сто шестнадцать миллиардов девятьсот миллионов рублей, что на четыре целых пять десятых процента больше, чем в две тысячи пятнадцатом году
-Основная доля поступлений приходится на налог на имущество организаций – шестьдесят восемь целых пять десятых процента
-</t>
-  </si>
-  <si>
     <t>Динамика поступления имущественных налогов в консолидированный бюджет Российской Федерации в 2015-2016 гг</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>Кто может применять нулевую ставку по налогу, уплачиваемому в связи с применением УСН?</t>
   </si>
   <si>
-    <t>Каков порядок зачисления сумм налога на прибыль в бюджетную систему Российской Федерации  с 2017 года?</t>
-  </si>
-  <si>
     <t>Валюта, доходы, налогоплательщик, иностранная валюта, цели, исчисление, уплата, налог на прибыль</t>
   </si>
   <si>
@@ -588,17 +579,9 @@
     <t>Порядок, зачисление, суммы, налог на прибыль, бюджетная система, Российская Федерация, РФ</t>
   </si>
   <si>
-    <t>В соответствии со статьей 284 НК РФ налоговая ставка по налогу на прибыль устанавливается в размере 20 процентов. С 2017 года налог на прибыль зачисляется в бюджетную систему Российской Федерации следующим образом: 
-- 3% в федеральный бюджет Российской Федерации;- 17% в бюджеты субъектов Российской Федерации</t>
-  </si>
-  <si>
     <t>Плательщик, налогоплательщик, акциз, кто</t>
   </si>
   <si>
-    <t>Налогоплательщиками акциза признаются: 
-организации; индивидуальные предприниматели; лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза, определяемые в соответствии с правом Евразийского экономического союза и законодательством Российской Федерации о таможенном деле</t>
-  </si>
-  <si>
     <t>Объект, налогообложение, налог на добычу полезных ископаемых, НДПИ</t>
   </si>
   <si>
@@ -614,9 +597,6 @@
     <t>Нулевую ставку могут применять впервые зарегистрированные индивидуальные предприниматели, применяющие упрощённую систему налогообложения и осуществляющие предпринимательскую деятельность в производственной, социальной, научной сферах, а также в сфере оказания бытовых услуг населению</t>
   </si>
   <si>
-    <t>Нулевую ставку по налогу, уплачиваемому в связи с применением УСН могут применять впервые зарегистрированные индивидуальные предприниматели, применяющие УСН и осуществляющие предпринимательскую деятельность в производственной, социальной и (или) научной сферах, а также в сфере оказания бытовых услуг населению</t>
-  </si>
-  <si>
     <t>В какой срок налоговый орган обязан выдать патент?</t>
   </si>
   <si>
@@ -644,11 +624,6 @@
     <t>Преимущества, досудебное урегулирование, налоговые споры, судебное разбирательство, налогоплательщик</t>
   </si>
   <si>
-    <t>Досудебное урегулирование налоговых споров перед судебным разбирательством имеет следующие преимущества для налогоплательщика:
--отсутствие материальных издержек;
-- быстрое разрешение спора</t>
-  </si>
-  <si>
     <t>Как можно получить информацию о ходе рассмотрения обращения?</t>
   </si>
   <si>
@@ -695,10 +670,6 @@
   </si>
   <si>
     <t>Принцип «вытянутой руки» – это ситуация, когда между двумя предприятиями в их коммерческих и финансовых взаимоотношениях создаются или устанавливаются условия, отличные от тех, которые имели бы место между независимыми предприятиями. Любая прибыль, которая могла бы быть начислена одному из предприятий, но из-за наличия этих условий не была ему начислена, может быть включена в прибыль этого предприятия и соответственно обложена налогом</t>
-  </si>
-  <si>
-    <t>Определение принципа «вытянутой руки» содержится в Статье 9 Модельной конвенции ОЭСР об избежание двойного налогообложения и о предотвращении уклонения от уплаты налогов на доходы и имущество:
-«... в случае если между двумя предприятиями в их коммерческих и финансовых взаимоотношениях создаются или устанавливаются условия, отличные от тех, которые имели бы место между независимыми предприятиями, то любая прибыль, которая могла бы быть начислена одному из предприятий, но из-за наличия этих условий не была ему начислена, может быть включена в прибыль этого предприятия и соответственно обложена налогом»</t>
   </si>
   <si>
     <t>Как определяются взаимозависимые лица?</t>
@@ -745,24 +716,12 @@
     <t>Методы, используются, проведение, налоговый контроль, совершение, сделки, между, взаимозависимые лица</t>
   </si>
   <si>
-    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются один или комбинация нескольких методов из пяти:
-• Метод сопоставимых рыночных цен;
-• Метод цены последующей реализации;
-• Затратный метод;
-• Метод сопоставимой рентабельности;
-• Метод распределения прибыли.
-Кроме того, в отношении разовых сделок в п. 9 ст. 105.7 НК РФ установлено, что если ни один из указанных методов не позволяет определить соответствие их цен рыночной цене, то для определения такого соответствия может быть привлечен независимый оценщик</t>
-  </si>
-  <si>
     <t>Срок, представление, уведомление, контролируемые сделки</t>
   </si>
   <si>
     <t>Уведомления о контролируемых сделках налогоплательщик направляет в налоговый̆ орган в срок не позднее двадцатого мая года, следующего за календарным годом, в котором совершены контролируемые сделки</t>
   </si>
   <si>
-    <t>Уведомления о контролируемых сделках налогоплательщик направляет в налоговый̆ орган в срок не позднее 20 мая года, следующего за календарным годом, в котором совершены контролируемые сделки</t>
-  </si>
-  <si>
     <t>Какая компания признается контролируемой иностранной компанией?</t>
   </si>
   <si>
@@ -772,12 +731,6 @@
     <t>Контролируемой иностранной компанией признается иностранная организация, которая не является налоговым резидентом Российской Федерации, контролирующим лицом которой являются организация или физическое лицо, признаваемые налоговыми резидентами Российской Федерации</t>
   </si>
   <si>
-    <t>Контролируемой иностранной компанией признается иностранная организация, одновременно удовлетворяющая всем следующим условиям:
-• Организация не признается налоговым резидентом Российской Федерации;
-• Контролирующим лицом организации являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации.
-Или иностранная структура без образования юридического лица, контролирующим лицом которой являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации</t>
-  </si>
-  <si>
     <t>Какое максимальное время ожидания в очереди при предоставлении государственных услуг ФНС России?</t>
   </si>
   <si>
@@ -799,15 +752,9 @@
     <t>Какие электронные услуги можно получить на сайте налоговой службы?</t>
   </si>
   <si>
-    <t>Как мне обратиться в налоговый орган  без личного визита?</t>
-  </si>
-  <si>
     <t>Как получить логин и пароль для доступа в интернет-сервис «Личный кабинет налогоплательщика для физических лиц» в налоговом органе?</t>
   </si>
   <si>
-    <t>Чем может быть полезен   интернет-сервис «Личный кабинет налогоплательщика для физических лиц»?</t>
-  </si>
-  <si>
     <t>Можно ли получить сведения из ЕГРЮЛ/ЕГРИП в онлайн режиме?</t>
   </si>
   <si>
@@ -841,12 +788,6 @@
     <t>Способы, оценка, качество, государственные услуги, госуслуги, Федеральная налоговая служба, ФНС, Россия, Российская Федерация</t>
   </si>
   <si>
-    <t>Существуют следующие способы оценки качества предоставления государственных услуг в налоговых органах:
-• Радиотелефонная связь (смс-опрос, телефонный опрос),
-• Терминальные устройства в налоговых органах Российской Федерации,
-• специализированный сайт «Ваш контроль»</t>
-  </si>
-  <si>
     <t>Специализированный сайт «Ваш контроль»</t>
   </si>
   <si>
@@ -854,16 +795,6 @@
   </si>
   <si>
     <t>Способы, каналы, форма, граждане, налогоплательщики, обратиться, в налоговые органы</t>
-  </si>
-  <si>
-    <t>Граждане, в том числе налогоплательщики вправе обратиться в налоговые органы:
-А) в письменной форме (почтовой связью, факсимильной связью) по адресу налоговых органов;
-Б) в форме электронного документа (без электронной подписи) с официального сайта Федеральной налоговой службы в сети Интернет (посредством online – сервиса «Обратиться в ФНС России» или территориальных налоговых органов «Обращение в УФНС (ИФНС) России»);
-В) в форме электронного документа (без электронной подписи) с официального сайта Федеральной налоговой службы в сети Интернет (посредством online – сервиса «Личный кабинет налогоплательщика физического лица»);
-Г) в форме электронного документа (с усиленной квалифицированной подписью) по ТКС;
-Д) в форме электронного документа через федеральную государственную информационную систему «Единый портал государственных и муниципальных услуг (функций)» в сети Интернет;
-Е) в устной форме непосредственно в налоговый орган или по телефонам справочной службы налоговых органов;
-Ж) в порядке, установленном для личного приема граждан</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.nalog.ru/rn77/service/obr_fts/; https://lkfl.nalog.ru/lk/; https://www.gosuslugi.ru/
@@ -883,14 +814,6 @@
     <t>Информация, деятельность, налоговые органы, из дома</t>
   </si>
   <si>
-    <t>На официальном сайте ФНС России по адресу nalog.ru представлен широкий спектр данных. 
-Информационная структура сайта, включает в себя пользовательское и информационное меню сайта. 
-Пользовательское меню предусматривает навигацию по сайту на основе жизненных ситуаций, с которыми сталкиваются пользователи, например, получение налогового вычета, уплата транспортного или имущественного налога, переход на упрощенную систему налогообложения и т.п. На сайте сейчас представлено 256 наиболее часто случающихся жизненных ситуаций. Информация представляется по категориям налогоплательщиков: физические лица, индивидуальные предприниматели и юридические лица.
-Пользователи, которые обращаются на сайт с узкоспециализированными вопросами, не представленными в пользовательском меню, могут воспользоваться информационным меню, которое позволяет самостоятельно работать с тематическими разделами сайта для решения необходимых задач.
-Выбрать тот или иной способ поиска информации можно на главной странице сайта. 
-Для помощи пользователям в навигации на сайте, а также пользования различными сервисами, ведется разработка  серии обучающих видеороликов по сервисам сайта в стиле скрайбинга - простое изложение сложной информации</t>
-  </si>
-  <si>
     <t>Официальный сайт Федеральной налоговой службы</t>
   </si>
   <si>
@@ -901,10 +824,6 @@
   </si>
   <si>
     <t>Перечень интерактивных сервисов размещен в разделе «Электронные сервисы» на официальном сайте Федеральной налоговой службы. Электронные услуги сайта охватывают все категории налогоплательщиков и сферы их интересов</t>
-  </si>
-  <si>
-    <t>Перечень интерактивных сервисов размещен в разделе «Электронные сервисы» на официальном сайте Федеральной налоговой службы. Ознакомиться с полным перечнем онлайн услуг пользователь может кликнут мышкой на вкладку «Все сервисы». 
-Электронные услуги сайта охватывают все категории налогоплательщиков и сферы их интересов, позволяют пользователю получить полный спектр информации и услуг в любой точке земного шара в режиме 24х7, экономя время и финансовые затраты</t>
   </si>
   <si>
     <t>Раздел «Электронные сервисы» на официальном сайте Федеральной налоговой службы</t>
@@ -942,16 +861,6 @@
     <t>Чем полезен, что содержит, Интернет-сервис, Личный кабинет, налогоплательщик, физические лица</t>
   </si>
   <si>
-    <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику:
--получать актуальную информацию об объектах имущества и транспортных средствах, о суммах начисленных и уплаченных налоговых платежей, о наличии переплат, о задолженности по налогам перед бюджетом; 
--контролировать состояние расчетов с бюджетом; 
--получать и распечатывать налоговые уведомления и квитанции на уплату налоговых платежей; 
--оплачивать налоговую задолженность и налоговые платежи через банки – партнеры ФНС России; 
--скачивать программы для заполнения декларации по налогу на доходы физических лиц по форме № 3-НДФЛ, заполнять декларацию по форме № 3-НДФЛ в режиме онлайн, направлять в налоговую инспекцию декларацию по форме № 3-НДФЛ в электронном виде, подписанную электронной подписью налогоплательщика; 
--отслеживать статус камеральной проверки налоговых деклараций по форме № 3-НДФЛ; 
--обращаться в налоговые органы без личного визита в налоговую инспекцию</t>
-  </si>
-  <si>
     <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» на официальном сайте Федеральной налоговой службы</t>
   </si>
   <si>
@@ -1004,9 +913,6 @@
   </si>
   <si>
     <t>Сервис, электронный, онлайн, интернет, возникли, трудности, при работе, ФНС, Федеральная налоговая служба</t>
-  </si>
-  <si>
-    <t>В том случае, если пользователь испытывает затруднения при работе с каким-либо сервисом ФНС России, для оперативного устранения проблемы необходимо  обращаться в службу технической поддержки, гиперссылка на которую размещена в нижней части экранной формы</t>
   </si>
   <si>
     <t>Интернет-сервис «Отправить сообщение в службу технической поддержки online-сервисов» на официальном сайте Федеральной налоговой службы</t>
@@ -1113,16 +1019,10 @@
     <t>Делать, действия, забыл, пароль, сервис, Личный кабинет, налогоплательщик, физических лиц, ЛК ФЛ</t>
   </si>
   <si>
-    <t>При входе в «Личный кабинет налогоплательщика для физических лиц» необходимо нажать кнопку «Забыли пароль?» Если Вы ранее выбрали вариант восстановления пароля с помощью адреса электронной почты и в разделе «Профиль» указали телефон, подтвержденный адрес электронной почты и контрольное слово, необходимо ввести запрашиваемые реквизиты. В противном случае необходимо обратиться в любую инспекцию ФНС России</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сервис, личный кабинет, налогоплательщик, физических лиц, ЛК ФЛ, отображаются, выводятся, неверные данные </t>
   </si>
   <si>
     <t>Необходимо обратиться в налоговый орган через «Личный кабинет налогоплательщика для физических лиц» или посетить инспекцию лично</t>
-  </si>
-  <si>
-    <t>Если в сервисе «Личный кабинет налогоплательщика для физических лиц» отображаются неверные данные, то необходимо обратиться в налоговый орган через «Личный кабинет налогоплательщика для физических лиц», посредством сервиса «Обратиться в ФНС России», или посетить инспекцию лично</t>
   </si>
   <si>
     <t>Не приходят, ответ, направленный, не отвечает, служба, техническая поддержка, ФНС, Федеральная налоговая служба</t>
@@ -1806,32 +1706,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> в 2016 году</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Поступления по сводной группе акцизов по подакцизным товарам (продукции), производимым на территории Российской Федерации, в консолидированный бюджет Российской Федерации в 2016 году составили 1293,9 млрд. рублей, что на 279,5 млрд. рублей, или на 27,6% больше, чем в 2015 году. 
-Основная доля поступлений по сводной группе акцизов в 2016 году принадлежит акцизам на табачную продукцию (36,1%) и акцизам на нефтепродук</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ты  (35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>,0%), поступления по которым составили 467,0 млрд. рублей и 452,4 млрд. рублей соответственно</t>
     </r>
   </si>
   <si>
@@ -2267,6 +2141,135 @@
       </rPr>
       <t xml:space="preserve"> рублей соответственно</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Поступления по сводной группе акцизов по подакцизным товарам (продукции), производимым на территории Российской Федерации, в консолидированный бюджет Российской Федерации в 2016 году составили 1293,9 млрд. рублей, что на 279,5 млрд. рублей, или на 27,6% больше, чем в 2015 году. 
+Основная доля поступлений по сводной группе акцизов в 2016 году принадлежит акцизам на табачную продукцию (36,1%) и акцизам на нефтепродук</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ты (35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,0%), поступления по которым составили 467,0 млрд. рублей и 452,4 млрд. рублей соответственно</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует четыре вида имущественных налогов: налог на имущество физических лиц, налог на имущество организаций, транспортный налог, земельный налог.
+Поступления по ним в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили один триллион сто шестнадцать миллиардов девятьсот миллионов рублей, что на четыре целых пять десятых процента больше, чем в две тысячи пятнадцатом году.
+Основная доля поступлений приходится на налог на имущество организаций – шестьдесят восемь целых пять десятых процента
+</t>
+  </si>
+  <si>
+    <t>Каков порядок зачисления сумм налога на прибыль в бюджетную систему Российской Федерации с 2017 года?</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 284 НК РФ налоговая ставка по налогу на прибыль устанавливается в размере 20 процентов. С 2017 года налог на прибыль зачисляется в бюджетную систему Российской Федерации следующим образом: 
+- 3% в федеральный бюджет Российской Федерации;
+- 17% в бюджеты субъектов Российской Федерации</t>
+  </si>
+  <si>
+    <t>Налогоплательщиками акциза признаются: 
+- организации; 
+- индивидуальные предприниматели; 
+- лица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза, определяемые в соответствии с правом Евразийского экономического союза и законодательством Российской Федерации о таможенном деле</t>
+  </si>
+  <si>
+    <t>Нулевую ставку по налогу, уплачиваемому в связи с применением УСН, могут применять впервые зарегистрированные индивидуальные предприниматели, применяющие УСН и осуществляющие предпринимательскую деятельность в производственной, социальной и (или) научной сферах, а также в сфере оказания бытовых услуг населению</t>
+  </si>
+  <si>
+    <t>Досудебное урегулирование налоговых споров перед судебным разбирательством имеет следующие преимущества для налогоплательщика:
+- отсутствие материальных издержек;
+- быстрое разрешение спора</t>
+  </si>
+  <si>
+    <t>Определение принципа «вытянутой руки» содержится в Статье 9 Модельной конвенции ОЭСР об избежании двойного налогообложения и о предотвращении уклонения от уплаты налогов на доходы и имущество:
+«... в случае если между двумя предприятиями в их коммерческих и финансовых взаимоотношениях создаются или устанавливаются условия, отличные от тех, которые имели бы место между независимыми предприятиями, то любая прибыль, которая могла бы быть начислена одному из предприятий, но из-за наличия этих условий не была ему начислена, может быть включена в прибыль этого предприятия и соответственно обложена налогом»</t>
+  </si>
+  <si>
+    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используется один или комбинация нескольких методов из пяти:
+• Метод сопоставимых рыночных цен;
+• Метод цены последующей реализации;
+• Затратный метод;
+• Метод сопоставимой рентабельности;
+• Метод распределения прибыли.
+Кроме того, в отношении разовых сделок в п. 9 ст. 105.7 НК РФ установлено, что если ни один из указанных методов не позволяет определить соответствие их цен рыночной цене, то для определения такого соответствия может быть привлечен независимый оценщик</t>
+  </si>
+  <si>
+    <t>Уведомления о контролируемых сделках налогоплательщик направляет в налоговый орган в срок не позднее 20 мая года, следующего за календарным годом, в котором совершены контролируемые сделки</t>
+  </si>
+  <si>
+    <t>Контролируемой иностранной компанией признается иностранная организация, одновременно удовлетворяющая всем следующим условиям:
+• организация не признается налоговым резидентом Российской Федерации;
+• контролирующим лицом организации являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации;
+• иностранная структура без образования юридического лица, контролирующим лицом которой являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации</t>
+  </si>
+  <si>
+    <t>Существуют следующие способы оценки качества предоставления государственных услуг в налоговых органах:
+• радиотелефонная связь (смс-опрос, телефонный опрос);
+• терминальные устройства в налоговых органах Российской Федерации;
+• специализированный сайт «Ваш контроль»</t>
+  </si>
+  <si>
+    <t>Граждане, в том числе налогоплательщики, вправе обратиться в налоговые органы:
+А) в письменной форме (почтовой связью, факсимильной связью) по адресу налоговых органов;
+Б) в форме электронного документа (без электронной подписи) с официального сайта Федеральной налоговой службы в сети Интернет (посредством online – сервиса «Обратиться в ФНС России» или территориальных налоговых органов «Обращение в УФНС (ИФНС) России»);
+В) в форме электронного документа (без электронной подписи) с официального сайта Федеральной налоговой службы в сети Интернет (посредством online – сервиса «Личный кабинет налогоплательщика физического лица»);
+Г) в форме электронного документа (с усиленной квалифицированной подписью) по ТКС;
+Д) в форме электронного документа через федеральную государственную информационную систему «Единый портал государственных и муниципальных услуг (функций)» в сети Интернет;
+Е) в устной форме непосредственно в налоговый орган или по телефонам справочной службы налоговых органов;
+Ж) в порядке, установленном для личного приема граждан</t>
+  </si>
+  <si>
+    <t>На официальном сайте ФНС России по адресу nalog.ru представлен широкий спектр данных. 
+Информационная структура сайта включает в себя пользовательское и информационное меню сайта. 
+Пользовательское меню предусматривает навигацию по сайту на основе жизненных ситуаций, с которыми сталкиваются пользователи, например, получение налогового вычета, уплата транспортного или имущественного налога, переход на упрощенную систему налогообложения и т.п. На сайте сейчас представлено 256 наиболее часто случающихся жизненных ситуаций. Информация представляется по категориям налогоплательщиков: физические лица, индивидуальные предприниматели и юридические лица.
+Пользователи, которые обращаются на сайт с узкоспециализированными вопросами, не представленными в пользовательском меню, могут воспользоваться информационным меню, которое позволяет самостоятельно работать с тематическими разделами сайта для решения необходимых задач.
+Выбрать тот или иной способ поиска информации можно на главной странице сайта. 
+Для помощи пользователям в навигации на сайте, а также пользовании различными сервисами, ведется разработка  серии обучающих видеороликов по сервисам сайта в стиле скрайбинга - простого изложения сложной информации</t>
+  </si>
+  <si>
+    <t>Перечень интерактивных сервисов размещен в разделе «Электронные сервисы» на официальном сайте Федеральной налоговой службы. Ознакомиться с полным перечнем онлайн услуг пользователь может, кликнув мышкой на вкладку «Все сервисы». 
+Электронные услуги сайта охватывают все категории налогоплательщиков и сферы их интересов, позволяют пользователю получить полный спектр информации и услуг в любой точке земного шара в режиме 24х7, экономя время и финансовые затраты</t>
+  </si>
+  <si>
+    <t>Как мне обратиться в налоговый орган без личного визита?</t>
+  </si>
+  <si>
+    <t>Чем может быть полезен интернет-сервис «Личный кабинет налогоплательщика для физических лиц»?</t>
+  </si>
+  <si>
+    <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику:
+- получать актуальную информацию об объектах имущества и транспортных средствах, о суммах начисленных и уплаченных налоговых платежей, о наличии переплат, о задолженности по налогам перед бюджетом; 
+- контролировать состояние расчетов с бюджетом; 
+- получать и распечатывать налоговые уведомления и квитанции на уплату налоговых платежей; 
+- оплачивать налоговую задолженность и налоговые платежи через банки – партнеры ФНС России; 
+- скачивать программы для заполнения декларации по налогу на доходы физических лиц по форме № 3-НДФЛ, заполнять декларацию по форме № 3-НДФЛ в режиме онлайн, направлять в налоговую инспекцию декларацию по форме № 3-НДФЛ в электронном виде, подписанную электронной подписью налогоплательщика; 
+- отслеживать статус камеральной проверки налоговых деклараций по форме № 3-НДФЛ; 
+- обращаться в налоговые органы без личного визита в налоговую инспекцию</t>
+  </si>
+  <si>
+    <t>В том случае, если пользователь испытывает затруднения при работе с каким-либо сервисом ФНС России, для оперативного устранения проблемы необходимо обращаться в службу технической поддержки, гиперссылка на которую размещена в нижней части экранной формы</t>
+  </si>
+  <si>
+    <t>При входе в «Личный кабинет налогоплательщика для физических лиц» необходимо нажать кнопку «Забыли пароль?». Если Вы ранее выбрали вариант восстановления пароля с помощью адреса электронной почты и в разделе «Профиль» указали телефон, подтвержденный адрес электронной почты и контрольное слово, необходимо ввести запрашиваемые реквизиты. В противном случае необходимо обратиться в любую инспекцию ФНС России</t>
+  </si>
+  <si>
+    <t>Если в сервисе «Личный кабинет налогоплательщика для физических лиц» отображаются неверные данные, то необходимо обратиться в налоговый орган через «Личный кабинет налогоплательщика для физических лиц» посредством сервиса «Обратиться в ФНС России» или посетить инспекцию лично</t>
   </si>
 </sst>
 </file>
@@ -2725,7 +2728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2736,10 +2739,10 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2798,26 +2801,26 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2825,10 +2828,10 @@
         <v>112</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>113</v>
@@ -2845,19 +2848,19 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>117</v>
@@ -2868,25 +2871,25 @@
         <v>15</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -2894,10 +2897,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>121</v>
@@ -2914,13 +2917,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>533</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>124</v>
@@ -2939,13 +2942,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>127</v>
@@ -2953,13 +2956,13 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -2967,10 +2970,10 @@
         <v>129</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>130</v>
@@ -2990,7 +2993,7 @@
         <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>135</v>
@@ -3010,19 +3013,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>138</v>
@@ -3033,16 +3036,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>140</v>
@@ -3056,7 +3059,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>142</v>
@@ -3065,7 +3068,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>144</v>
@@ -3079,16 +3082,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>147</v>
@@ -3102,16 +3105,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>150</v>
@@ -3125,22 +3128,22 @@
         <v>26</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" ht="191.25" customHeight="1">
@@ -3148,22 +3151,22 @@
         <v>27</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="377.25" customHeight="1">
@@ -3171,22 +3174,22 @@
         <v>28</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="110.25">
@@ -3194,22 +3197,22 @@
         <v>29</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="112.5" customHeight="1">
@@ -3217,16 +3220,16 @@
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="47.25">
@@ -3234,16 +3237,16 @@
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
@@ -3251,16 +3254,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" ht="47.25">
@@ -3268,16 +3271,16 @@
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" ht="105.75" customHeight="1">
@@ -3285,16 +3288,16 @@
         <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1">
@@ -3302,33 +3305,33 @@
         <v>35</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>181</v>
+        <v>562</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>186</v>
+        <v>563</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="94.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="110.25">
       <c r="A26" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>188</v>
+        <v>564</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="63">
@@ -3336,16 +3339,16 @@
         <v>37</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" ht="98.25" customHeight="1">
@@ -3353,16 +3356,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>194</v>
+        <v>565</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" ht="62.25" customHeight="1">
@@ -3370,16 +3373,16 @@
         <v>39</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="78.75">
@@ -3387,16 +3390,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="63">
@@ -3404,16 +3407,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>204</v>
+        <v>566</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="47.25">
@@ -3421,22 +3424,22 @@
         <v>42</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="78.75">
@@ -3444,22 +3447,22 @@
         <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="110.25">
@@ -3467,16 +3470,16 @@
         <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="141.75">
@@ -3484,16 +3487,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>221</v>
+        <v>567</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="47.25">
@@ -3501,16 +3504,16 @@
         <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="94.5">
@@ -3518,16 +3521,16 @@
         <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="63">
@@ -3535,16 +3538,16 @@
         <v>48</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="207.75" customHeight="1">
@@ -3552,16 +3555,16 @@
         <v>49</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>235</v>
+        <v>568</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="47.25">
@@ -3569,16 +3572,16 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>238</v>
+        <v>569</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="126">
@@ -3586,16 +3589,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>242</v>
+        <v>570</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="94.5">
@@ -3603,16 +3606,16 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="126">
@@ -3620,22 +3623,22 @@
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="78.75">
@@ -3643,45 +3646,45 @@
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>264</v>
+        <v>571</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="267.75">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="283.5">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>268</v>
+        <v>572</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="63">
@@ -3689,16 +3692,16 @@
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="149.25" customHeight="1">
@@ -3706,22 +3709,22 @@
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>274</v>
+        <v>573</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="94.5">
@@ -3729,22 +3732,22 @@
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>279</v>
+        <v>574</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="189">
@@ -3752,22 +3755,22 @@
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>250</v>
+        <v>575</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="126">
@@ -3775,45 +3778,45 @@
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="252">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="267.75">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>252</v>
+        <v>576</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>291</v>
+        <v>577</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="174" customHeight="1">
@@ -3821,22 +3824,22 @@
         <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="78.75">
@@ -3844,22 +3847,22 @@
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="110.25">
@@ -3867,22 +3870,22 @@
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="94.5" customHeight="1">
@@ -3890,22 +3893,22 @@
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>310</v>
+        <v>578</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25">
@@ -3913,22 +3916,22 @@
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="126">
@@ -3936,22 +3939,22 @@
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="63">
@@ -3959,22 +3962,22 @@
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="47.25">
@@ -3982,16 +3985,16 @@
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="63">
@@ -3999,16 +4002,16 @@
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="94.5">
@@ -4016,16 +4019,16 @@
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="94.5">
@@ -4033,16 +4036,16 @@
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>345</v>
+        <v>579</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="78.75">
@@ -4050,16 +4053,16 @@
         <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>348</v>
+        <v>580</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="94.5">
@@ -4067,16 +4070,16 @@
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="126">
@@ -4084,16 +4087,16 @@
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="126">
@@ -4101,16 +4104,16 @@
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="110.25">
@@ -4118,16 +4121,16 @@
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="94.5">
@@ -4135,16 +4138,16 @@
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="156" customHeight="1">
@@ -4152,16 +4155,16 @@
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="126">
@@ -4169,22 +4172,22 @@
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="173.25">
@@ -4192,16 +4195,16 @@
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="267.75">
@@ -4209,16 +4212,16 @@
         <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="94.5">
@@ -4226,16 +4229,16 @@
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="252">
@@ -4243,16 +4246,16 @@
         <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="47.25">
@@ -4260,16 +4263,16 @@
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="207" customHeight="1">
@@ -4277,16 +4280,16 @@
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="47.25">
@@ -4294,16 +4297,16 @@
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="126">
@@ -4311,16 +4314,16 @@
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="299.25">
@@ -4328,16 +4331,16 @@
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="94.5">
@@ -4345,16 +4348,16 @@
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="220.5">
@@ -4362,16 +4365,16 @@
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="78.75">
@@ -4379,16 +4382,16 @@
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="63">
@@ -4396,16 +4399,16 @@
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="109.5" customHeight="1">
@@ -4413,22 +4416,22 @@
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="94.5">
@@ -4436,22 +4439,22 @@
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="220.5">
@@ -4459,22 +4462,22 @@
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="112.5" customHeight="1">
@@ -4482,33 +4485,33 @@
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="157.5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="141.75">
       <c r="A88" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="157.5">
@@ -4516,22 +4519,22 @@
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="63">
@@ -4539,16 +4542,16 @@
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="126">
@@ -4556,16 +4559,16 @@
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="126">
@@ -4573,16 +4576,16 @@
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="63">
@@ -4590,16 +4593,16 @@
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="94.5">
@@ -4607,16 +4610,16 @@
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="81.75" customHeight="1">
@@ -4624,16 +4627,16 @@
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="47.25">
@@ -4641,16 +4644,16 @@
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="78.75">
@@ -4658,16 +4661,16 @@
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="94.5">
@@ -4675,16 +4678,16 @@
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="378">
@@ -4692,50 +4695,50 @@
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="78.75">
       <c r="A100" s="8" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="181.5" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/23_questions.xlsx
+++ b/data/minfin/23_questions.xlsx
@@ -1108,9 +1108,6 @@
     <t>Сервис, личный кабинет, физическое лицо, налогоплательщик, ЛК ФЛ, ФНС, Федеральная налоговая служба, войти, на сайте, использование, учетная запись, ЕСИА. Единая система идентификации и аутентификации</t>
   </si>
   <si>
-    <t>Гражданин, зарегистрированный на Едином портале государственных и муниципальных услуг , может авторизоваться в сервисе «Личный кабинет налогоплательщика для физических лиц» на сайте ФНС России без посещения налоговой инспекции при условии, что он ранее обращался лично для идентификации в один из уполномоченных центров регистрации Единой системы идентификации и аутентификации, отделение ФГУП «Почта России», МФЦ России, центр обслуживания клиентов ПАО «Ростелеком», др. уполномоченные организации</t>
-  </si>
-  <si>
     <t>Единый портал государственных и муниципальных услуг; Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» на официальном сайте Федеральной налоговой службы</t>
   </si>
   <si>
@@ -1129,14 +1126,6 @@
   </si>
   <si>
     <t>Для подключения к личному кабинету налогоплательщик должен получить на руководителя организации квалифицированный сертификат ключа проверки электронной подписи в удостоверяющем центре, аккредитованном Минкомсвязи России</t>
-  </si>
-  <si>
-    <t>Для подключения к личному кабинету налогоплательщик должен получить квалифицированный сертификат ключа проверки электронной подписи (далее КСКПЭП) в удостоверяющем центре, аккредитованном Минкомсвязи России, и соответствующий требованиям Федерального закона от 06.04.2011 N 63-ФЗ. КСКПЭП должен быть выдан на руководителя организации либо лицо, имеющее право действовать без доверенности от имени организации по сведениям ЕГРЮЛ, либо руководителя управляющей организации, либо лицо, имеющее действующую доверенность с полными полномочиями, зарегистрированную в налоговых органах.
-Обязательным условием является наличие в КСКПЭП ИНН, ОГРН юридического лица.
-Для управляющей компании КСКПЭП должен содержать ФИО руководителя управляющей компании и реквизиты той организации, управление которой осуществляется (ИНН, ОГРН).
-Могут быть использованы КСКПЭП, выданные для представления налоговой и бухгалтерской отчетности по телекоммуникационным каналам связи.
-При формировании Информационного сообщения о доверенности в программе необходимо выбирать код КНД = 1167005 («Информационное сообщение о представительстве в отношениях, регламентируемых закон. о налогах»). Другой формат информационного сообщения не принимается. Доверенность должна быть с полными правами (доверенность для сдачи НБО не подходит для регистрации Личного кабинета).
-Налогоплательщик устанавливает и настраивает программное обеспечение, необходимое для получения доступа к «Личному кабинету налогоплательщика юридического лица», в соответствии с Руководством по установке и настройке программного обеспечения для работы с электронной подписью на портале «Личный кабинет налогоплательщика юридического лица», размещенным на странице сервиса</t>
   </si>
   <si>
     <t>Открыть, личный кабинет, индивидуальный предприниматель</t>
@@ -1226,34 +1215,10 @@
     <t>При маркировке товаров контрольными знаками используются радиочастотные идентификации и штриховые коды</t>
   </si>
   <si>
-    <t>При маркировке товаров контрольными знаками используются радиочастотные идентификации и штриховые коды.
-Радиочастотные идентификации:
-• RFID-метки;
-Штриховые коды:
-• двухмерный штрих-код (DataMatrix) для лекарственных препаратов
-• линейный штрих-код (EAN-13) при описании товара в GS1;
-• QR-код</t>
-  </si>
-  <si>
     <t>Маркировка, товар, нормативные, правовые, акты, регулируют, сферу</t>
   </si>
   <si>
-    <t>Основные нормативные правовые акты, регулирующие сферу маркировки товара в Российской Федерации:
-1. Соглашение между странами ЕАЭС о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 года;
-2. Постановление Правительства Российской Федерации от 11.08.2016 №787 «О реализации пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» и признании утратившим силу постановления Правительства Российской Федерации от 24 марта 2016 года №235»;
-4. Протокол о продлении срока действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 года, подписанный 23.11.2016 в г. Москве государствами-членами Евразийского экономического союза.
-5. Паспорт приоритетного проекта «Внедрение автоматизированной системы мониторинга движения лекарственных препаратов от производителя до конечного потребителя для защиты населения от фальсифицированных лекарственных препаратов и оперативного выведения из оборота контрафактных и недоброкачественных препаратов», утвержденный президиумом Совета при Президенте Российской Федерации по стратегическому развитию и приоритетным проектам (Протокол от 25.10.2016 № 9);
-6. Постановление Правительства РФ от 24.01.2017                  №62 «О проведении эксперимента по маркировке контрольными (идентификационными) знаками и мониторингу за оборотом отдельных видов лекарственных препаратов для медицинского применения»</t>
-  </si>
-  <si>
     <t>Страны, Евразийский экономический союз, ЕАЭС, участвуют, в реализации, Пилотного проекта, маркировка, меховых изделий</t>
-  </si>
-  <si>
-    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют следующие страны ЕАЭС:- Российская Федерация;
-- Республика Армения;
-- Республика Беларусь;
-- Республика Казахстан;
-- Кыргызская Республика</t>
   </si>
   <si>
     <t>Роль, федеральные, органы, исполнительной власти, в сфере, маркировка товаров, контрольные знаки, мех, меховые изделия, лекарства, лекарственные препараты</t>
@@ -1275,9 +1240,6 @@
     <t>За нарушение установленного порядка нанесения маркировки на товар контрольных знаков предусмотрена ответственность Кодексом об административных правонарушениях Российской Федерации и Уголовным кодексом Российской Федерации</t>
   </si>
   <si>
-    <t>Ответственность, за оборот товаров, в отношении которых установлены требования по маркировке и нарушение установленного порядка нанесения маркировки, предусмотрена Кодексом об административных правонарушениях РФ (ч. 1,2 ст. 15.12) и Уголовным кодексом РФ (ч. 1,2 ст. 171.1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Глобальный номер товара, GTIN, используемый, описание, товара, маркировка </t>
   </si>
   <si>
@@ -1329,9 +1291,6 @@
     <t>С 1 февраля надо отправлять покупателю электронный чек. А можно обойтись без бумажного чека?</t>
   </si>
   <si>
-    <t>Кто будет хранить данные о покупке или оплате услуг в виде электронного чека – налоговая служба или предприниматели? Куда будет обращаться покупатель, в случае если потеряет бумажный чек и захочет его восстановить?</t>
-  </si>
-  <si>
     <t>Придется ли покупать новую ККТ? Есть ли возможность модернизировать старый кассовый аппарат?</t>
   </si>
   <si>
@@ -1374,20 +1333,9 @@
     <t>Предусмотрен переход к применению новой контрольно-кассовой техники, предусматривающей передачу данных об операциях в налоговые органы в режиме он-лайн через оператора фискальных данных, а также отправку электронной копии чека на номер мобильного телефона или электронную почту покупателя</t>
   </si>
   <si>
-    <t>В основу нового порядка применения контрольно-кассовой техники заложена технология передачи информации о расчетах в адрес налоговых органов.
-Новый порядок применения контрольно-кассовой техники предусматривает:
-1) возможность регистрации кассового аппарата в электронном виде через кабинет ККТ на сайте ФНС России, без физического посещения налогового органа. 
-2) передачу информации о расчетах в адрес налоговых органов;
-3) освобождение Интернет-торговли от обязательной печати чека и формирование его в электронном виде. Причем данный кассовый чек хранится в фискальной памяти, а не просто является информацией о совершенной покупке;
-4) неограниченный максимальный срок службы ключа фискального признака при установлении его нижней планки для различных категорий налогоплательщиков (например, по общему правилу этот срок составляет не менее 13 месяцев, а для лиц, на которых законопроектом распространяется обязанность применения ККТ: сфера услуг, плательщики ЕНВД и патента – не менее 36 месяцев)</t>
-  </si>
-  <si>
     <t>Система, применения, ККТ, Контрольно-кассовая техника, сроки перехода</t>
   </si>
   <si>
-    <t>Статьей 7 Федерального закона от 03.07.2016 № 290-ФЗ предусмотрен поэтапный переход на применение ККТ, передающей информацию о расчётах в адрес налоговых органов в электронном виде. В отношении применяемой в настоящее время ККТ требования вступают в силу с 1 июля 2017 года, в отношении лиц, которые в настоящее время не обязаны применять ККТ, – с 1 июля 2018 года. При этом, уже с 1 февраля 2017 года регистрация касс производится только по новому порядку</t>
-  </si>
-  <si>
     <t xml:space="preserve">Плательщик, ЕНВД, единый налог на вмененный доход, временное, освобождение, онлайн касса, ККТ, Контрольно-кассовая техника, налоговый режим, совмещение, УСН, упрощенная система, налогообложения </t>
   </si>
   <si>
@@ -1406,9 +1354,6 @@
     <t>Контрольно-кассовая техника, ККТ, программное обеспечение, передача, чеков, в налоговый орган</t>
   </si>
   <si>
-    <t>Для выполнения требования закона об обеспечении кассовым аппаратом передачи информации в налоговый орган в режиме он-лайн на новом кассовом аппарате должно быть предустановленно соответствующее программное обеспечение или установлено в ходе модернизации действующих кассовых аппаратов</t>
-  </si>
-  <si>
     <t>Соответствующее программное обеспечение должно быть предустановленно на новом кассовом аппарате ввиду требования закона об обеспечении кассовым аппаратом передачи информации в налоговые органы, или установлено в ходе модернизации действующих кассовых аппаратов</t>
   </si>
   <si>
@@ -1434,9 +1379,6 @@
   </si>
   <si>
     <t>При перебоях со связью кассовый аппарат сохраняет информацию о платежных операциях и при восстановлении связи направляет ее оператору фискальных данных</t>
-  </si>
-  <si>
-    <t>Перебои со связью никак не повлияют на работу кассы, так как она сохраняет информацию и при восстановлении связи направляет ее оператору фискальных данных. Во-вторых, уже сейчас для многих предприятий законодательно определена обязанность предоставить покупателю право оплаты платежной картой, что уже предполагает наличие связи и соответствующие расходы. Поэтому говорить о том, что новый порядок повлияет на бесперебойность торговли, не приходится</t>
   </si>
   <si>
     <t>Контрольно-кассовая техника, ККТ, увидеть, введенные, данные, личный кабинет</t>
@@ -1471,37 +1413,13 @@
     <t>Система, ЦОД, центр, обработки данных, Министерство Финансов, Минфин, что</t>
   </si>
   <si>
-    <t xml:space="preserve">Федеральная налоговая служба в соответствии с Постановлением Правительства РФ от 05.12.2012 № 995 «Об осуществлении бюджетных инвестиций в проектирование и строительство объектов капитального строительства - центров обработки данных, подведомственных Федеральной налоговой службе» создает системы ЦОД (центров обработки данных) Министерства финансов Российской Федерации и подведомственных ему служб, которая строится на основе принципов катастрофоустойчивости: строительство основного ФЦОД и резервных ЦОД, «горячее» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от друга. 
-В настоящее время приняты в эксплуатацию: 
-Федеральный центр обработки данных (ФЦОД). 
-Место расположения: г. Дубна Московской области. Основные характеристики:
-- электрическая мощность – 5 МВт (с возможностью последующего увеличения);
-- технологическая зона, состоящая из 2-х машинных залов, позволяет установить 450 стоек с ИТ-оборудованием, телекоммуникационным оборудованием, включая структурированную кабельную систему.
-Резервный центр обработки данных №1 (РЦОД№1) – «горячий» резерв:
-Место расположения: г. Городец  Нижегородской области. Основные характеристики аналогичны ФЦОД. Объект является полной копией инженерной и информационно-технологической инфраструктуры ФЦОД.
-Дублирование ЦОД обеспечивает:
-- промышленную эксплуатацию информационных ресурсов подсистем АИС «Налог» с учетом «географического принципа» адресации запросов;
-- «горячее» резервирование в полном объеме информационных ресурсов ФЦОД методом репликации с периодичностью, обеспечивающей бесперебойный процесс предоставления сервисов АИС «Налог»;
-- размещение виртуализированных ресурсов рабочих мест пользователей с учетом «географического принципа»;
-- «перехват» нагрузки ФЦОД в случае его выхода из строя </t>
-  </si>
-  <si>
     <t>Какие федеральные органы власти используют ЦОД, входящие в систему ЦОД Минфина России?</t>
   </si>
   <si>
     <t>Система, входящие, ЦОД, центр обработки данных, Министерство Финансов, Минфин, Федеральные органы, власти, используют</t>
   </si>
   <si>
-    <t>В ФЦОД (г. Дубна Московской области) и РЦОД №1(г. Городец Нижегородской области) системы ЦОД Минфина России хранят и обрабатывают свои информационные ресурсы:
-• Минфин России – эксплуатируется по 10 стоек с ИТ-оборудованием в каждом ЦОД;
-• ФНС России – эксплуатируется по 225 стоек в каждом ЦОД;
-• Федеральное казначейство – эксплуатируется по 215 стоек в каждом ЦОД</t>
-  </si>
-  <si>
     <t>ЦОД, центр обработки данных, Министерство Финансов, Минфин, обрабатываемая, обеспечивается, гарантируется, доступность, сервисов, сохранность информации, АИС, налоговых органов</t>
-  </si>
-  <si>
-    <t>Каким образом обеспечиваются сохранность информации, хранящейся и обрабатываемой в ЦОД, входящих в систему ЦОД Минфина России и гарантируется доступность сервисов, которые представляет АИС налоговых органов?</t>
   </si>
   <si>
     <t>В целях обеспечения гарантированного бесперебойного функционирования и доступности ЦОД, входящие в систему ЦОД Минфина России, разработаны и построены в соответствии с рекомендациями уровня Tier 3 международного стандарта TIA- ETA- 942 «Телекоммуникационная инфраструктура ЦОД».               Проектная документация ЦОД прошла сертификацию в Uptime Institute по уровню Tier 3. В целях обеспечения катастрофоустойчивости системы ЦОД Минфина России они разнесены географически</t>
@@ -1567,9 +1485,6 @@
   </si>
   <si>
     <t>Сервис «Онлайн запись на прием в инспекцию» предоставляет возможность налогоплательщикам записаться на прием в налоговую инспекцию в выбранное ими время за четырнадцать календарных дней до начала приема</t>
-  </si>
-  <si>
-    <t>Для входа в Личный кабинет индивидуального предпринимателя можно воспользоваться, при наличии, логином и паролем доступа к «Личному кабинету налогоплательщика для физических лиц», но при первом входе потребуется ввести дополнительные реквизиты. Или можно использовать Квалифицированный сертификат ключа проверки электронной подписи</t>
   </si>
   <si>
     <r>
@@ -1816,24 +1731,6 @@
     <t>Поступления, утилизационный сбор, федеральный бюджет, 2015, 2016</t>
   </si>
   <si>
-    <t>В две тысячи шестнадцатом году прирост поступлений в консолидированный бюджет РоссийскойФедерации наблюдался по эНДэФэ+эЛ, налогу на прибыль, эНДэ+эС, акцизам, имущественным налогам; снижение поступлений - по эНДэПэ+И</t>
-  </si>
-  <si>
-    <t>Формирование администрируемых Фэ эН эС России доходов федерального бюджета в две тысячи шестнадцатом году на семьдесят девять процентов обеспечено за счет поступления эНДэПэ+И и эНДэ+эС</t>
-  </si>
-  <si>
-    <t>В две тысячи шестнадцатом году прирост поступлений в федеральный бюджет наблюдался за счет акцизов, эНДэ+эС, налога на прибыль по ставке двадцать процентов, снижение поступлений за счет эНДэПэ+И</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В две тысячи шестнадцатом году поступления налога на добычу полезных ископаемых в консолидированный бюджет Российской Федерации снизились на девять целых две десятых процента и составили два триллиона девятьсот двадцать девять миллиарда четыреста миллионов рублей.
-Снижение поступлений по налогу обусловлено уменьшением поступлений по эНДэПэ+И на нефть в результате снижения цен+ы на нефть марки Urals в две тысячи шестнадцатом году на восемнадцать целых три десятых процента
-</t>
-  </si>
-  <si>
-    <t>Поступления налога на доходы физических лиц в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили три триллиона семнадцать миллиардов триста миллионов рублей, что на семь целых пять десятых процента больше, чем в две тысячи пятнадцатом году. 
-В общей сумме поступлений эНДэФэ+эЛ - девяносто пять целых четыре десятых процента занимают поступления налога, уплачиваемого налоговыми агентами</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Поступления утилизационного сбора в федеральный бюджет Российской Федерации в две тысячи шестнадцатом году составили восемьдесят девять миллиардов восемьсот миллионов рублей, что на сорок четыре процента </t>
     </r>
@@ -1859,72 +1756,10 @@
     </r>
   </si>
   <si>
-    <t>Налогоплательщиками налога на добавленную стоимость являются организации, индивидуальные предприниматели, а также л+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Таможенного союза</t>
-  </si>
-  <si>
-    <t>Налогоплательщиками акциза признаются: организации; индивидуальные предприниматели; л+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза</t>
-  </si>
-  <si>
-    <t>Формирование доходов консолидированного бюджета Российской Федерации администрируемых Фэ эН эС России в две тысячи шестнадцатом году на семьдесят восемь процентов обеспечено за счет поступления эНДэФээЛ, эНДэПэ+И, налога на прибыль и эНДэ+эС. В две тысячи пятнадцатом году совокупная доля указанных налогов составляла восемьдесят процентов</t>
-  </si>
-  <si>
-    <t>При досуд+ебном урегулировании налоговых споров для налогоплательщика отсутствуют материальные издержки</t>
-  </si>
-  <si>
-    <t>Взаимозависимые лица - это л+ица, особенности отношений между которыми могут оказывать влияние на условия, результаты сделок, совершаемых ими, на экономические результаты их деятельности или деятельности представляемых ими лиц</t>
-  </si>
-  <si>
-    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются метод сопоставимых рыночных цен, метод цен+ы последующей реализации, затратный метод, метод сопоставимой рентабельности, метод распределения прибыли</t>
-  </si>
-  <si>
-    <t>В налоговые органы можно обратиться в устной форме или по телефонам справочной службы налоговых органов, в письменной форме - по адресу налоговых органов, в форме электронного документа - посредством online – сервисов «Обратиться в ФээН+эС России», «Личный кабинет налогоплательщика физического лиц+а» или на «Едином портале государственных и муниципальных услуг», а также по телекоммуникационным каналам связи с применением усиленной квалифицированной подписи</t>
-  </si>
-  <si>
     <t xml:space="preserve">В справочную службу Фэ эН эС России можно обратиться по  бесплатному общефедеральному телефонному номеру единого Контакт-центра: восемь, восемьсот, двести двадцать два, двадцать два, двадцать два </t>
   </si>
   <si>
-    <t>Обратиться в налоговую инспекцию без личного визита предоставляют возможность интерактивные сервисы на официальном сайте ФээН+эС России: 
-«Обратиться в ФээН+эС России»;  и    личные кабинеты налогоплательщика для физических лиц, индивидуального предпринимателя или юридического лица</t>
-  </si>
-  <si>
-    <t>Регистрационную карту, содержащую логин и пароль, можно получить лично в любой инспекции ФээН+эС России, или с помощью учетной записи на Едином портале государственных и муниципальных услуг, подтвержденной лично или с помощью усиленной квалифицированной электронной подписи</t>
-  </si>
-  <si>
     <t>Интернет-сервис «Личный кабинет налогоплательщика для физических лиц» позволяет налогоплательщику: контролировать состояние расчетов с бюджетом, получать и распечатывать налоговые уведомления и квитанции на уплату налоговых платежей, оплачивать их, а так же скачивать программы для заполнения декларации по форме номер три НДФЛ, заполнять ее и в режиме онлайн, направлять в налоговую инспекцию</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Выписку из соответствующего реестра или справку об отсутствии запрашиваемой информации можно получить с помощью интернет-сервиса «Предоставление сведений из </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ЕГР+ЮЛ / ЕГР+ИП   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> о конкретном юридическом лице / индивидуальном предпринимателе в форме электронного документа»</t>
-    </r>
-  </si>
-  <si>
-    <t>Для физических лиц в Интернет-сервисе «Личный кабинет налогоплательщика для физических лиц» предусмотрена возможность не только заполнения, но и направления налоговой декларации по форме номер три эНДэФэ+эЛ. Сервис позволяет прикреплять и направлять в электронном виде вложения дополнительных документов, прилагаемых к декларации</t>
-  </si>
-  <si>
-    <t>С основными нормативными правовыми актами, регулирующими сферу маркировки товара в Российской Федерации можно ознакомиться в т+екстовом ответе на вопрос</t>
-  </si>
-  <si>
-    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют стр+аны Е А Э С: Российская Федерация, Республики Армения, Беларусь, Казахстан и Кыргызская Республика</t>
   </si>
   <si>
     <r>
@@ -1949,71 +1784,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> контрольные функции</t>
-    </r>
-  </si>
-  <si>
-    <t>С информацией о правилах и порядке маркировки товаров можно ознакомиться: в разделе «Маркировка товаров» на официальном сайте Фэ эН эС России или в разделе «Маркировка изделий из натурального меха» на официальном сайте ФэТэ+эС России</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кассир обязан выдать бумажный чек покупателю, если до момента расчёта не предоставлено абонентского н+омера или адреса электронной почты. Бумажные чеки остаются обязательными в отдалённых от сетей связи местностях, где передача документов в налоговые органы в электронной форме не предусмотрена </t>
-  </si>
-  <si>
-    <t>Информация о ч+еках хранится как у Налоговой службы, так и в фискальном накопителе кассового аппарата. Покупатель сможет найти свой чек с помощью соответствующего сервиса на сайте Налоговой службы или воспользовавшись бесплатным мобильным приложением</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Система центров обработки данных Министерства финансов Российской Федерации и подведомственных ему служб строится на основе принципов </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>катастр+офоуст+ойчивости:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-строительство основного Федерального центра обработки данных и резервных ЦОД, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>«гор+ячее</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>др+уга</t>
     </r>
   </si>
   <si>
@@ -2270,6 +2040,237 @@
   </si>
   <si>
     <t>Если в сервисе «Личный кабинет налогоплательщика для физических лиц» отображаются неверные данные, то необходимо обратиться в налоговый орган через «Личный кабинет налогоплательщика для физических лиц» посредством сервиса «Обратиться в ФНС России» или посетить инспекцию лично</t>
+  </si>
+  <si>
+    <t>Гражданин, зарегистрированный на Едином портале государственных и муниципальных услуг, может авторизоваться в сервисе «Личный кабинет налогоплательщика для физических лиц» на сайте ФНС России без посещения налоговой инспекции при условии, что он ранее обращался лично для идентификации в один из уполномоченных центров регистрации Единой системы идентификации и аутентификации, отделение ФГУП «Почта России», МФЦ России, центр обслуживания клиентов ПАО «Ростелеком», др. уполномоченные организации</t>
+  </si>
+  <si>
+    <t>Для подключения к личному кабинету налогоплательщик должен получить квалифицированный сертификат ключа проверки электронной подписи (далее КСКПЭП) в удостоверяющем центре, аккредитованном Минкомсвязи России, и соответствующий требованиям Федерального закона от 06.04.2011 N 63-ФЗ. КСКПЭП должен быть выдан на руководителя организации, либо лицо, имеющее право действовать без доверенности от имени организации по сведениям ЕГРЮЛ, либо руководителя управляющей организации, либо лицо, имеющее действующую доверенность с полными полномочиями, зарегистрированную в налоговых органах.
+Обязательным условием является наличие в КСКПЭП ИНН, ОГРН юридического лица.
+Для управляющей компании КСКПЭП должен содержать ФИО руководителя управляющей компании и реквизиты той организации, управление которой осуществляется (ИНН, ОГРН).
+Могут быть использованы КСКПЭП, выданные для представления налоговой и бухгалтерской отчетности по телекоммуникационным каналам связи.
+При формировании Информационного сообщения о доверенности в программе необходимо выбирать код КНД = 1167005 («Информационное сообщение о представительстве в отношениях, регламентируемых закон. о налогах»). Другой формат информационного сообщения не принимается. Доверенность должна быть с полными правами (доверенность для сдачи НБО не подходит для регистрации Личного кабинета).
+Налогоплательщик устанавливает и настраивает программное обеспечение, необходимое для получения доступа к «Личному кабинету налогоплательщика юридического лица», в соответствии с Руководством по установке и настройке программного обеспечения для работы с электронной подписью на портале «Личный кабинет налогоплательщика юридического лица», размещенным на странице сервиса</t>
+  </si>
+  <si>
+    <t>Для входа в Личный кабинет индивидуального предпринимателя можно воспользоваться, при наличии, лог\+ином и паролем доступа к «Личному кабинету налогоплательщика для физических лиц», но при первом входе потребуется ввести дополнительные реквизиты. Или можно использовать Квалифицированный сертификат ключа проверки электронной подписи</t>
+  </si>
+  <si>
+    <t>При маркировке товаров контрольными знаками используются радиочастотные идентификации и штриховые коды.
+Радиочастотные идентификации:
+• RFID-метки.
+Штриховые коды:
+• двухмерный штрих-код (DataMatrix) для лекарственных препаратов;
+• линейный штрих-код (EAN-13) при описании товара в GS1;
+• QR-код</t>
+  </si>
+  <si>
+    <t>Основные нормативные правовые акты, регулирующие сферу маркировки товара в Российской Федерации:
+1. Соглашение между странами ЕАЭС о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 года;
+2. Постановление Правительства Российской Федерации от 11.08.2016 №787 «О реализации пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» и признании утратившим силу постановления Правительства Российской Федерации от 24 марта 2016 года №235»;
+3. Протокол о продлении срока действия Соглашения о реализации в 2015-2016 годах пилотного проекта по введению маркировки товаров контрольными (идентификационными) знаками по товарной позиции «Предметы одежды, принадлежности к одежде и прочие изделия, из натурального меха» от 8 сентября 2015 года, подписанный 23.11.2016 в г. Москве государствами-членами Евразийского экономического союза;
+4. Паспорт приоритетного проекта «Внедрение автоматизированной системы мониторинга движения лекарственных препаратов от производителя до конечного потребителя для защиты населения от фальсифицированных лекарственных препаратов и оперативного выведения из оборота контрафактных и недоброкачественных препаратов», утвержденный президиумом Совета при Президенте Российской Федерации по стратегическому развитию и приоритетным проектам (Протокол от 25.10.2016 № 9);
+5. Постановление Правительства РФ от 24.01.2017                  №62 «О проведении эксперимента по маркировке контрольными (идентификационными) знаками и мониторингу за оборотом отдельных видов лекарственных препаратов для медицинского применения»</t>
+  </si>
+  <si>
+    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют следующие страны ЕАЭС:
+- Российская Федерация;
+- Республика Армения;
+- Республика Беларусь;
+- Республика Казахстан;
+- Кыргызская Республика</t>
+  </si>
+  <si>
+    <t>Ответственность за оборот товаров, в отношении которых установлены требования по маркировке, и нарушение установленного порядка нанесения маркировки, предусмотрена Кодексом об административных правонарушениях РФ (ч. 1,2 ст. 15.12) и Уголовным кодексом РФ (ч. 1,2 ст. 171.1)</t>
+  </si>
+  <si>
+    <t>В основу нового порядка применения контрольно-кассовой техники заложена технология передачи информации о расчетах в адрес налоговых органов.
+Новый порядок применения контрольно-кассовой техники предусматривает:
+1) возможность регистрации кассового аппарата в электронном виде через кабинет ККТ на сайте ФНС России, без физического посещения налогового органа;
+2) передачу информации о расчетах в адрес налоговых органов;
+3) освобождение Интернет-торговли от обязательной печати чека и формирование его в электронном виде (причем данный кассовый чек хранится в фискальной памяти, а не просто является информацией о совершенной покупке);
+4) неограниченный максимальный срок службы ключа фискального признака при установлении его нижней планки для различных категорий налогоплательщиков (например, по общему правилу этот срок составляет не менее 13 месяцев, а для лиц, на которых законопроектом распространяется обязанность применения ККТ: сфера услуг, плательщики ЕНВД и патента, – не менее 36 месяцев)</t>
+  </si>
+  <si>
+    <t>Статьей 7 Федерального закона от 03.07.2016 № 290-ФЗ предусмотрен поэтапный переход на применение ККТ, передающей информацию о расчётах в адрес налоговых органов в электронном виде. В отношении применяемой в настоящее время ККТ требования вступают в силу с 1 июля 2017 года, в отношении лиц, которые в настоящее время не обязаны применять ККТ, – с 1 июля 2018 года. При этом уже с 1 февраля 2017 года регистрация касс производится только по новому порядку</t>
+  </si>
+  <si>
+    <t>Для выполнения требования закона об обеспечении кассовым аппаратом передачи информации в налоговый орган в режиме он-лайн на новом кассовом аппарате должно быть предустановленно соответствующее программное обесп\+ечение или установлено в ходе модернизации действующих кассовых аппаратов</t>
+  </si>
+  <si>
+    <t>Кто будет хранить данные о покупке или оплате услуг в виде электронного чека – налоговая служба или предприниматели? Куда будет обращаться покупатель в случае, если потеряет бумажный чек и захочет его восстановить?</t>
+  </si>
+  <si>
+    <t>Перебои со связью никак не повлияют на работу кассы, так как она сохраняет информацию и при восстановлении связи направляет ее оператору фискальных данных. Также, уже сейчас для многих предприятий законодательно определена обязанность предоставить покупателю право оплаты платежной картой, что уже предполагает наличие связи и соответствующие расходы. Поэтому говорить о том, что новый порядок повлияет на бесперебойность торговли, не приходится</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Система центров обработки данных Министерства финансов Российской Федерации и подведомственных ему служб строится на основе принципов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>катастр\+офоуст\+ойчивости:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+строительство основного Федерального центра обработки данных и резервных ЦОД, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«гор\+ячее</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>др\+уга</t>
+    </r>
+  </si>
+  <si>
+    <t>В налоговые органы можно обратиться в устной форме или по телефонам справочной службы налоговых органов, в письменной форме - по адресу налоговых органов, в форме электронного документа - посредством online – сервисов «Обратиться в ФээН\+эС России», «Личный кабинет налогоплательщика физического лиц\+а» или на «Едином портале государственных и муниципальных услуг», а также по телекоммуникационным каналам связи с применением усиленной квалифицированной подписи</t>
+  </si>
+  <si>
+    <t>В ФЦОД (г. Дубна Московской области) и РЦОД №1 (г. Городец Нижегородской области) системы ЦОД Минфина России хранят и обрабатывают свои информационные ресурсы:
+• Минфин России – эксплуатируется по 10 стоек с ИТ-оборудованием в каждом ЦОД;
+• ФНС России – эксплуатируется по 225 стоек в каждом ЦОД;
+• Федеральное казначейство – эксплуатируется по 215 стоек в каждом ЦОД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федеральная налоговая служба в соответствии с Постановлением Правительства РФ от 05.12.2012 № 995 «Об осуществлении бюджетных инвестиций в проектирование и строительство объектов капитального строительства - центров обработки данных, подведомственных Федеральной налоговой службе», создает систему ЦОД (центров обработки данных) Министерства финансов Российской Федерации и подведомственных ему служб, которая строится на основе принципов катастрофоустойчивости: строительство основного ФЦОД и резервных ЦОД, «горячее» и «холодное» резервирование информационных ресурсов Минфина России и подведомственных ему федеральных органов власти с их размещением на территориальном удалении друг от друга. 
+В настоящее время приняты в эксплуатацию: 
+Федеральный центр обработки данных (ФЦОД). 
+Место расположения: г. Дубна Московской области. Основные характеристики:
+- электрическая мощность – 5 МВт (с возможностью последующего увеличения);
+- технологическая зона, состоящая из 2-х машинных залов, позволяет установить 450 стоек с ИТ-оборудованием, телекоммуникационным оборудованием, включая структурированную кабельную систему.
+Резервный центр обработки данных №1 (РЦОД№1) – «горячий» резерв:
+Место расположения: г. Городец Нижегородской области. Основные характеристики аналогичны ФЦОД. Объект является полной копией инженерной и информационно-технологической инфраструктуры ФЦОД.
+Дублирование ЦОД обеспечивает:
+- промышленную эксплуатацию информационных ресурсов подсистем АИС «Налог» с учетом «географического принципа» адресации запросов;
+- «горячее» резервирование в полном объеме информационных ресурсов ФЦОД методом репликации с периодичностью, обеспечивающей бесперебойный процесс предоставления сервисов АИС «Налог»;
+- размещение виртуализированных ресурсов рабочих мест пользователей с учетом «географического принципа»;
+- «перехват» нагрузки ФЦОД в случае его выхода из строя </t>
+  </si>
+  <si>
+    <t>Каким образом обеспечивается сохранность информации, хранящейся и обрабатываемой в ЦОД, входящих в систему ЦОД Минфина России, и гарантируется доступность сервисов, которые представляет АИС налоговых органов?</t>
+  </si>
+  <si>
+    <t>С информацией о правилах и порядке маркировки товаров можно ознакомиться: в разделе «Маркировка товаров» на официальном сайте Фэ эН эС России или в разделе «Маркировка изделий из натурального меха» на официальном сайте ФэТэ\+эС России</t>
+  </si>
+  <si>
+    <t>В реализации Пилотного проекта по маркировке меховых изделий участвуют стр\+аны Е А Э С: Российская Федерация, Республики Армения, Беларусь, Казахстан и Кыргызская Республика</t>
+  </si>
+  <si>
+    <t>С основными нормативными правовыми актами, регулирующими сферу маркировки товара в Российской Федерации можно ознакомиться в т\+екстовом ответе на вопрос</t>
+  </si>
+  <si>
+    <t>Для физических лиц в Интернет-сервисе «Личный кабинет налогоплательщика для физических лиц» предусмотрена возможность не только заполнения, но и направления налоговой декларации по форме номер три эНДэФэ\+эЛ. Сервис позволяет прикреплять и направлять в электронном виде вложения дополнительных документов, прилагаемых к декларации</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Выписку из соответствующего реестра или справку об отсутствии запрашиваемой информации можно получить с помощью интернет-сервиса «Предоставление сведений из </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ЕГР\+ЮЛ / ЕГР\+ИП   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> о конкретном юридическом лице / индивидуальном предпринимателе в форме электронного документа»</t>
+    </r>
+  </si>
+  <si>
+    <t>Регистрационную карту, содержащую логин и пароль, можно получить лично в любой инспекции ФээН\+эС России, или с помощью учетной записи на Едином портале государственных и муниципальных услуг, подтвержденной лично или с помощью усиленной квалифицированной электронной подписи</t>
+  </si>
+  <si>
+    <t>Обратиться в налоговую инспекцию без личного визита предоставляют возможность интерактивные сервисы на официальном сайте ФээН\+эС России: 
+«Обратиться в ФээН\+эС России»;  и    личные кабинеты налогоплательщика для физических лиц, индивидуального предпринимателя или юридического лица</t>
+  </si>
+  <si>
+    <t>Взаимозависимые лица - это л\+ица, особенности отношений между которыми могут оказывать влияние на условия, результаты сделок, совершаемых ими, на экономические результаты их деятельности или деятельности представляемых ими лиц</t>
+  </si>
+  <si>
+    <t>Налогоплательщиками налога на добавленную стоимость являются организации, индивидуальные предприниматели, а также л\+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Таможенного союза</t>
+  </si>
+  <si>
+    <t>Поступления налога на доходы физических лиц в консолидированный бюджет Российской Федерации в две тысячи шестнадцатом году составили три триллиона семнадцать миллиардов триста миллионов рублей, что на семь целых пять десятых процента больше, чем в две тысячи пятнадцатом году. 
+В общей сумме поступлений эНДэФэ\+эЛ - девяносто пять целых четыре десятых процента занимают поступления налога, уплачиваемого налоговыми агентами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В две тысячи шестнадцатом году поступления налога на добычу полезных ископаемых в консолидированный бюджет Российской Федерации снизились на девять целых две десятых процента и составили два триллиона девятьсот двадцать девять миллиарда четыреста миллионов рублей.
+Снижение поступлений по налогу обусловлено уменьшением поступлений по эНДэПэ\+И на нефть в результате снижения цен+ы на нефть марки Urals в две тысячи шестнадцатом году на восемнадцать целых три десятых процента
+</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году прирост поступлений в федеральный бюджет наблюдался за счет акцизов, эНДэ\+эС, налога на прибыль по ставке двадцать процентов, снижение поступлений за счет эНДэПэ\+И</t>
+  </si>
+  <si>
+    <t>Формирование администрируемых Фэ эН эС России доходов федерального бюджета в две тысячи шестнадцатом году на семьдесят девять процентов обеспечено за счет поступления эНДэПэ\+И и эНДэ\+эС</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году прирост поступлений в консолидированный бюджет РоссийскойФедерации наблюдался по эНДэФэ\+эЛ, налогу на прибыль, эНДэ\+эС, акцизам, имущественным налогам; снижение поступлений - по эНДэПэ\+И</t>
+  </si>
+  <si>
+    <t>Формирование доходов консолидированного бюджета Российской Федерации администрируемых Фэ эН эС России в две тысячи шестнадцатом году на семьдесят восемь процентов обеспечено за счет поступления эНДэФээЛ, эНДэПэ\+И, налога на прибыль и эНДэ\+эС. В две тысячи пятнадцатом году совокупная доля указанных налогов составляла восемьдесят процентов</t>
+  </si>
+  <si>
+    <t>Налогоплательщиками акциза признаются: организации; индивидуальные предприниматели; л\+ица, признаваемые налогоплательщиками в связи с перемещением товаров через таможенную границу Евразийского экономического союза</t>
+  </si>
+  <si>
+    <t>При досуд\+ебном урегулировании налоговых споров для налогоплательщика отсутствуют материальные издержки</t>
+  </si>
+  <si>
+    <t>При проведении налогового контроля в связи с совершением сделок между взаимозависимыми лицами используются метод сопоставимых рыночных цен, метод цен\+ы последующей реализации, затратный метод, метод сопоставимой рентабельности, метод распределения прибыли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кассир обязан выдать бумажный чек покупателю, если до момента расчёта не предоставлено абонентского н\+омера или адреса электронной почты. Бумажные чеки остаются обязательными в отдалённых от сетей связи местностях, где передача документов в налоговые органы в электронной форме не предусмотрена </t>
+  </si>
+  <si>
+    <t>Информация о ч\+еках хранится как у Налоговой службы, так и в фискальном накопителе кассового аппарата. Покупатель сможет найти свой чек с помощью соответствующего сервиса на сайте Налоговой службы или воспользовавшись бесплатным мобильным приложением</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2739,10 +2740,10 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2801,20 +2802,20 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>111</v>
@@ -2828,10 +2829,10 @@
         <v>112</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>113</v>
@@ -2848,19 +2849,19 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>117</v>
@@ -2871,19 +2872,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>118</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>119</v>
@@ -2897,10 +2898,10 @@
         <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>121</v>
@@ -2917,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>124</v>
@@ -2942,13 +2943,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>513</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>550</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>127</v>
@@ -2956,7 +2957,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>128</v>
@@ -2970,10 +2971,10 @@
         <v>129</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>130</v>
@@ -2993,7 +2994,7 @@
         <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>135</v>
@@ -3013,19 +3014,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>138</v>
@@ -3036,16 +3037,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>140</v>
@@ -3059,7 +3060,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>142</v>
@@ -3068,7 +3069,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>144</v>
@@ -3082,16 +3083,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>147</v>
@@ -3100,21 +3101,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>150</v>
@@ -3128,16 +3129,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>152</v>
@@ -3151,16 +3152,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>155</v>
@@ -3174,16 +3175,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>157</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>158</v>
@@ -3197,16 +3198,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>160</v>
@@ -3220,10 +3221,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>164</v>
@@ -3305,13 +3306,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>183</v>
@@ -3325,10 +3326,10 @@
         <v>177</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>184</v>
@@ -3362,7 +3363,7 @@
         <v>189</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>188</v>
@@ -3410,10 +3411,10 @@
         <v>197</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>198</v>
@@ -3450,7 +3451,7 @@
         <v>204</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>206</v>
@@ -3493,7 +3494,7 @@
         <v>214</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>218</v>
@@ -3507,7 +3508,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>217</v>
@@ -3524,7 +3525,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>220</v>
@@ -3541,7 +3542,7 @@
         <v>222</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>226</v>
@@ -3558,10 +3559,10 @@
         <v>223</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>227</v>
@@ -3578,7 +3579,7 @@
         <v>229</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>228</v>
@@ -3595,7 +3596,7 @@
         <v>232</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>231</v>
@@ -3626,7 +3627,7 @@
         <v>234</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>248</v>
@@ -3649,10 +3650,10 @@
         <v>235</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>251</v>
@@ -3672,10 +3673,10 @@
         <v>236</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>254</v>
@@ -3695,7 +3696,7 @@
         <v>237</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>258</v>
@@ -3712,10 +3713,10 @@
         <v>238</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>259</v>
@@ -3738,7 +3739,7 @@
         <v>263</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>262</v>
@@ -3755,10 +3756,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>267</v>
@@ -3781,7 +3782,7 @@
         <v>240</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>271</v>
@@ -3796,18 +3797,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="267.75">
+    <row r="51" spans="1:7" ht="252">
       <c r="A51" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>274</v>
@@ -3827,7 +3828,7 @@
         <v>241</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>278</v>
@@ -3896,10 +3897,10 @@
         <v>291</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>292</v>
@@ -3919,7 +3920,7 @@
         <v>295</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>306</v>
@@ -3942,7 +3943,7 @@
         <v>296</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>310</v>
@@ -4039,10 +4040,10 @@
         <v>301</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>326</v>
@@ -4059,7 +4060,7 @@
         <v>328</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>327</v>
@@ -4090,7 +4091,7 @@
         <v>304</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>333</v>
@@ -4107,7 +4108,7 @@
         <v>334</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>336</v>
@@ -4175,19 +4176,19 @@
         <v>340</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>544</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>353</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="173.25">
@@ -4198,13 +4199,13 @@
         <v>341</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="267.75">
@@ -4215,13 +4216,13 @@
         <v>342</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="94.5">
@@ -4232,13 +4233,13 @@
         <v>343</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="252">
@@ -4249,13 +4250,13 @@
         <v>344</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="47.25">
@@ -4263,16 +4264,16 @@
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="207" customHeight="1">
@@ -4280,16 +4281,16 @@
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="47.25">
@@ -4297,16 +4298,16 @@
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="126">
@@ -4314,16 +4315,16 @@
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>387</v>
+        <v>547</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="299.25">
@@ -4331,50 +4332,50 @@
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="94.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="110.25">
       <c r="A80" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>391</v>
+        <v>549</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="220.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="236.25">
       <c r="A81" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="78.75">
@@ -4382,16 +4383,16 @@
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>396</v>
+        <v>550</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="63">
@@ -4399,16 +4400,16 @@
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="109.5" customHeight="1">
@@ -4416,22 +4417,22 @@
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="94.5">
@@ -4439,22 +4440,22 @@
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="220.5">
@@ -4462,22 +4463,22 @@
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="112.5" customHeight="1">
@@ -4485,16 +4486,16 @@
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="141.75">
@@ -4502,16 +4503,16 @@
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="157.5">
@@ -4519,22 +4520,22 @@
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="63">
@@ -4542,16 +4543,16 @@
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>437</v>
+        <v>553</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="126">
@@ -4559,16 +4560,16 @@
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="126">
@@ -4576,16 +4577,16 @@
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>413</v>
+        <v>554</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="63">
@@ -4593,16 +4594,16 @@
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="94.5">
@@ -4610,16 +4611,16 @@
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>447</v>
+        <v>555</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="81.75" customHeight="1">
@@ -4627,16 +4628,16 @@
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="47.25">
@@ -4644,16 +4645,16 @@
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="78.75">
@@ -4661,16 +4662,16 @@
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="94.5">
@@ -4678,16 +4679,16 @@
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="378">
@@ -4695,50 +4696,50 @@
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>458</v>
+        <v>559</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="78.75">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="94.5">
       <c r="A100" s="8" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="181.5" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>463</v>
+        <v>560</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
